--- a/tests/integration_testing/results/plots/tech_potential/Summary_Data-TP.xlsx
+++ b/tests/integration_testing/results/plots/tech_potential/Summary_Data-TP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="127">
   <si>
     <t>ECM Name</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Res. Air Sealing (Exist), IECC c. 2021</t>
-  </si>
-  <si>
-    <t>Res. Air Sealing (New), IECC c. 2021</t>
   </si>
   <si>
     <t>Baseline competed</t>
@@ -757,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -875,85 +872,85 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
-        <v>1012.896641865274</v>
+        <v>1004.240089871456</v>
       </c>
       <c r="K2">
-        <v>1013.052239399019</v>
+        <v>995.9848972822093</v>
       </c>
       <c r="L2">
-        <v>1011.068001181276</v>
+        <v>985.791143074962</v>
       </c>
       <c r="M2">
-        <v>1007.214212316397</v>
+        <v>973.9342715719156</v>
       </c>
       <c r="N2">
-        <v>1001.41970969021</v>
+        <v>960.4510304595208</v>
       </c>
       <c r="O2">
-        <v>994.6934482051549</v>
+        <v>946.4499319008526</v>
       </c>
       <c r="P2">
-        <v>988.5675435772192</v>
+        <v>933.3411463630764</v>
       </c>
       <c r="Q2">
-        <v>983.3528978277424</v>
+        <v>921.28127577547</v>
       </c>
       <c r="R2">
-        <v>977.7805601005293</v>
+        <v>909.1835906831125</v>
       </c>
       <c r="S2">
-        <v>972.4419310402078</v>
+        <v>897.5966709813436</v>
       </c>
       <c r="T2">
-        <v>967.1367604800923</v>
+        <v>886.2375469655015</v>
       </c>
       <c r="U2">
-        <v>962.3795965531544</v>
+        <v>875.5067691280495</v>
       </c>
       <c r="V2">
-        <v>957.1908664061357</v>
+        <v>864.56102580575</v>
       </c>
       <c r="W2">
-        <v>950.9165166023857</v>
+        <v>852.8018895956527</v>
       </c>
       <c r="X2">
-        <v>944.9094396234182</v>
+        <v>841.4674103264211</v>
       </c>
       <c r="Y2">
-        <v>939.6818574490771</v>
+        <v>830.8712838061259</v>
       </c>
       <c r="Z2">
-        <v>935.0293433817274</v>
+        <v>820.867392158138</v>
       </c>
       <c r="AA2">
-        <v>931.3614449721374</v>
+        <v>811.8657672432897</v>
       </c>
       <c r="AB2">
-        <v>927.9405757296884</v>
+        <v>803.2288257692277</v>
       </c>
       <c r="AC2">
-        <v>925.1481413876106</v>
+        <v>795.2410664663649</v>
       </c>
       <c r="AD2">
-        <v>922.5133012757249</v>
+        <v>787.4090983871927</v>
       </c>
       <c r="AE2">
-        <v>918.8594910430982</v>
+        <v>778.7807615648555</v>
       </c>
       <c r="AF2">
-        <v>916.0123656178752</v>
+        <v>770.9149710252249</v>
       </c>
       <c r="AG2">
-        <v>913.6534331518906</v>
+        <v>763.5953233492866</v>
       </c>
       <c r="AH2">
-        <v>910.9468916341457</v>
+        <v>756.1391560058446</v>
       </c>
       <c r="AI2">
-        <v>908.4754057643165</v>
+        <v>748.8990443829293</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -961,85 +958,85 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>582.2119809635045</v>
+        <v>568.3706654343677</v>
       </c>
       <c r="K3">
-        <v>588.2524736185014</v>
+        <v>560.9675512848036</v>
       </c>
       <c r="L3">
-        <v>593.4001116389428</v>
+        <v>553.0004314591799</v>
       </c>
       <c r="M3">
-        <v>597.5366326505167</v>
+        <v>544.3597136009777</v>
       </c>
       <c r="N3">
-        <v>600.6490009109691</v>
+        <v>535.2025767208985</v>
       </c>
       <c r="O3">
-        <v>603.0072962598738</v>
+        <v>525.9557906889268</v>
       </c>
       <c r="P3">
-        <v>605.5142598036465</v>
+        <v>517.3315071407266</v>
       </c>
       <c r="Q3">
-        <v>608.6313651933149</v>
+        <v>509.5555781320339</v>
       </c>
       <c r="R3">
-        <v>611.5359922953736</v>
+        <v>502.0783491675591</v>
       </c>
       <c r="S3">
-        <v>614.4466556002012</v>
+        <v>495.0613619016794</v>
       </c>
       <c r="T3">
-        <v>617.3005926733789</v>
+        <v>488.3047345721572</v>
       </c>
       <c r="U3">
-        <v>620.4366418193687</v>
+        <v>481.9687047487091</v>
       </c>
       <c r="V3">
-        <v>623.1461859752961</v>
+        <v>475.5590351700404</v>
       </c>
       <c r="W3">
-        <v>625.0707112218031</v>
+        <v>468.8039760934261</v>
       </c>
       <c r="X3">
-        <v>626.994429421516</v>
+        <v>462.3046919335356</v>
       </c>
       <c r="Y3">
-        <v>629.5302567674958</v>
+        <v>456.3602706809172</v>
       </c>
       <c r="Z3">
-        <v>632.4603839533414</v>
+        <v>450.8422852154382</v>
       </c>
       <c r="AA3">
-        <v>636.0196703407636</v>
+        <v>445.9882400439324</v>
       </c>
       <c r="AB3">
-        <v>639.5453320557551</v>
+        <v>441.2895648425357</v>
       </c>
       <c r="AC3">
-        <v>643.3933294202714</v>
+        <v>436.9541373131808</v>
       </c>
       <c r="AD3">
-        <v>647.4567924454575</v>
+        <v>432.8534358405633</v>
       </c>
       <c r="AE3">
-        <v>650.8315782156279</v>
+        <v>428.4340630027061</v>
       </c>
       <c r="AF3">
-        <v>654.6740647617047</v>
+        <v>424.4255994936926</v>
       </c>
       <c r="AG3">
-        <v>658.676582635243</v>
+        <v>420.6725449948626</v>
       </c>
       <c r="AH3">
-        <v>662.263051446358</v>
+        <v>416.8302022691106</v>
       </c>
       <c r="AI3">
-        <v>666.1163713209955</v>
+        <v>413.2442470381554</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1047,94 +1044,94 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4">
-        <v>430.6846609017667</v>
+        <v>435.8694244370864</v>
       </c>
       <c r="K4">
-        <v>424.7997657805178</v>
+        <v>435.017345997406</v>
       </c>
       <c r="L4">
-        <v>417.6678895423337</v>
+        <v>432.7907116157829</v>
       </c>
       <c r="M4">
-        <v>409.6775796658811</v>
+        <v>429.574557970938</v>
       </c>
       <c r="N4">
-        <v>400.7707087792411</v>
+        <v>425.248453738623</v>
       </c>
       <c r="O4">
-        <v>391.6861519452831</v>
+        <v>420.4941412119275</v>
       </c>
       <c r="P4">
-        <v>383.0532837735731</v>
+        <v>416.0096392223495</v>
       </c>
       <c r="Q4">
-        <v>374.7215326344259</v>
+        <v>411.7256976434347</v>
       </c>
       <c r="R4">
-        <v>366.2445678051564</v>
+        <v>407.1052415155535</v>
       </c>
       <c r="S4">
-        <v>357.9952754400068</v>
+        <v>402.5353090796642</v>
       </c>
       <c r="T4">
-        <v>349.8361678067138</v>
+        <v>397.9328123933446</v>
       </c>
       <c r="U4">
-        <v>341.9429547337852</v>
+        <v>393.5380643793396</v>
       </c>
       <c r="V4">
-        <v>334.0446804308424</v>
+        <v>389.0019906357115</v>
       </c>
       <c r="W4">
-        <v>325.845805380582</v>
+        <v>383.997913502226</v>
       </c>
       <c r="X4">
-        <v>317.9150102019031</v>
+        <v>379.1627183928861</v>
       </c>
       <c r="Y4">
-        <v>310.1516006815821</v>
+        <v>374.5110131252094</v>
       </c>
       <c r="Z4">
-        <v>302.5689594283874</v>
+        <v>370.0251069427017</v>
       </c>
       <c r="AA4">
-        <v>295.3417746313741</v>
+        <v>365.8775271993574</v>
       </c>
       <c r="AB4">
-        <v>288.395243673932</v>
+        <v>361.9392609266904</v>
       </c>
       <c r="AC4">
-        <v>281.7548119673372</v>
+        <v>358.2869291531824</v>
       </c>
       <c r="AD4">
-        <v>275.0565088302679</v>
+        <v>354.5556625466293</v>
       </c>
       <c r="AE4">
-        <v>268.0279128274693</v>
+        <v>350.346698562149</v>
       </c>
       <c r="AF4">
-        <v>261.3383008561707</v>
+        <v>346.4893715315326</v>
       </c>
       <c r="AG4">
-        <v>254.9768505166462</v>
+        <v>342.9227783544234</v>
       </c>
       <c r="AH4">
-        <v>248.6838401877875</v>
+        <v>339.3089537367337</v>
       </c>
       <c r="AI4">
-        <v>242.3590344433206</v>
+        <v>335.6547973447745</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1142,94 +1139,94 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5">
-        <v>17.7633974620578</v>
+        <v>18.02751101501275</v>
       </c>
       <c r="K5">
-        <v>17.41023307760841</v>
+        <v>17.93125722709196</v>
       </c>
       <c r="L5">
-        <v>16.96229152274638</v>
+        <v>17.73041605271791</v>
       </c>
       <c r="M5">
-        <v>16.46557736760134</v>
+        <v>17.46967302727606</v>
       </c>
       <c r="N5">
-        <v>15.96811461690537</v>
+        <v>17.19592332775211</v>
       </c>
       <c r="O5">
-        <v>15.47859917972394</v>
+        <v>16.91446471383215</v>
       </c>
       <c r="P5">
-        <v>15.01271630052085</v>
+        <v>16.64316206796924</v>
       </c>
       <c r="Q5">
-        <v>14.57157588242178</v>
+        <v>16.3879862710408</v>
       </c>
       <c r="R5">
-        <v>14.13001907937371</v>
+        <v>16.11966509229164</v>
       </c>
       <c r="S5">
-        <v>13.71081038150532</v>
+        <v>15.86309724097565</v>
       </c>
       <c r="T5">
-        <v>13.29035228733655</v>
+        <v>15.59338907461422</v>
       </c>
       <c r="U5">
-        <v>12.88847021792508</v>
+        <v>15.33618390192592</v>
       </c>
       <c r="V5">
-        <v>12.49588182092809</v>
+        <v>15.07953285779615</v>
       </c>
       <c r="W5">
-        <v>12.09633260379535</v>
+        <v>14.80471926904294</v>
       </c>
       <c r="X5">
-        <v>11.71672171656893</v>
+        <v>14.54290598207286</v>
       </c>
       <c r="Y5">
-        <v>11.34986457205971</v>
+        <v>14.29214315748686</v>
       </c>
       <c r="Z5">
-        <v>11.00091166125771</v>
+        <v>14.05724190806152</v>
       </c>
       <c r="AA5">
-        <v>10.66432208224576</v>
+        <v>13.82908132585195</v>
       </c>
       <c r="AB5">
-        <v>10.33666857140336</v>
+        <v>13.60168086490022</v>
       </c>
       <c r="AC5">
-        <v>10.0235704622618</v>
+        <v>13.38377009390228</v>
       </c>
       <c r="AD5">
-        <v>9.710589031649453</v>
+        <v>13.16110382110069</v>
       </c>
       <c r="AE5">
-        <v>9.303103670898082</v>
+        <v>12.8252279981659</v>
       </c>
       <c r="AF5">
-        <v>8.943571627765479</v>
+        <v>12.53700589224974</v>
       </c>
       <c r="AG5">
-        <v>8.63891425902105</v>
+        <v>12.30362824244608</v>
       </c>
       <c r="AH5">
-        <v>8.367445864132272</v>
+        <v>12.10145242331302</v>
       </c>
       <c r="AI5">
-        <v>8.101378488801036</v>
+        <v>11.90126821500175</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1237,94 +1234,94 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>8.044792141136679</v>
+        <v>8.180826631663273</v>
       </c>
       <c r="K6">
-        <v>7.913759784122351</v>
+        <v>8.183345911029329</v>
       </c>
       <c r="L6">
-        <v>7.75429509211809</v>
+        <v>8.155019372271388</v>
       </c>
       <c r="M6">
-        <v>7.571437851356557</v>
+        <v>8.100824987002293</v>
       </c>
       <c r="N6">
-        <v>7.375567759962436</v>
+        <v>8.030169293965114</v>
       </c>
       <c r="O6">
-        <v>7.175452647047091</v>
+        <v>7.950371937956998</v>
       </c>
       <c r="P6">
-        <v>6.97932274406215</v>
+        <v>7.870643248716158</v>
       </c>
       <c r="Q6">
-        <v>6.786774635917746</v>
+        <v>7.792642226236703</v>
       </c>
       <c r="R6">
-        <v>6.596590702133124</v>
+        <v>7.715074353185668</v>
       </c>
       <c r="S6">
-        <v>6.406838605388355</v>
+        <v>7.633670968487805</v>
       </c>
       <c r="T6">
-        <v>6.220024427918665</v>
+        <v>7.553306613745068</v>
       </c>
       <c r="U6">
-        <v>6.040644901614625</v>
+        <v>7.48047616618098</v>
       </c>
       <c r="V6">
-        <v>5.862629322503564</v>
+        <v>7.406179335340872</v>
       </c>
       <c r="W6">
-        <v>5.679643935830354</v>
+        <v>7.323545868178163</v>
       </c>
       <c r="X6">
-        <v>5.503930358994455</v>
+        <v>7.246996655704695</v>
       </c>
       <c r="Y6">
-        <v>5.327222263884868</v>
+        <v>7.170405778908006</v>
       </c>
       <c r="Z6">
-        <v>5.15302547596064</v>
+        <v>7.097669003925607</v>
       </c>
       <c r="AA6">
-        <v>4.982481776774407</v>
+        <v>7.028526992753728</v>
       </c>
       <c r="AB6">
-        <v>4.818460197671921</v>
+        <v>6.966359702428329</v>
       </c>
       <c r="AC6">
-        <v>4.660564763589562</v>
+        <v>6.912436518990044</v>
       </c>
       <c r="AD6">
-        <v>4.500567686715347</v>
+        <v>6.855217478507826</v>
       </c>
       <c r="AE6">
-        <v>4.34099018053461</v>
+        <v>6.795929839513679</v>
       </c>
       <c r="AF6">
-        <v>4.183256713161539</v>
+        <v>6.738917374147009</v>
       </c>
       <c r="AG6">
-        <v>4.025757971211818</v>
+        <v>6.681275287464147</v>
       </c>
       <c r="AH6">
-        <v>3.869147148050798</v>
+        <v>6.622872023849266</v>
       </c>
       <c r="AI6">
-        <v>3.711321161940468</v>
+        <v>6.56101504177466</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1332,94 +1329,94 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>23.43800088198944</v>
+        <v>23.65140055053039</v>
       </c>
       <c r="K7">
-        <v>23.22173222543783</v>
+        <v>23.64243346258444</v>
       </c>
       <c r="L7">
-        <v>22.92234643465482</v>
+        <v>23.54673909061646</v>
       </c>
       <c r="M7">
-        <v>22.5736591591358</v>
+        <v>23.39830401054021</v>
       </c>
       <c r="N7">
-        <v>22.17668411458875</v>
+        <v>23.19191210623062</v>
       </c>
       <c r="O7">
-        <v>21.75558305488932</v>
+        <v>22.94785748123173</v>
       </c>
       <c r="P7">
-        <v>21.33740235840087</v>
+        <v>22.69344453314661</v>
       </c>
       <c r="Q7">
-        <v>20.93050563033381</v>
+        <v>22.44180975557752</v>
       </c>
       <c r="R7">
-        <v>20.5145503011539</v>
+        <v>22.17365764723706</v>
       </c>
       <c r="S7">
-        <v>20.0953897189604</v>
+        <v>21.88993330288829</v>
       </c>
       <c r="T7">
-        <v>19.66443224736441</v>
+        <v>21.58559920532593</v>
       </c>
       <c r="U7">
-        <v>19.24681101444619</v>
+        <v>21.28868115072653</v>
       </c>
       <c r="V7">
-        <v>18.83702260639388</v>
+        <v>20.99391609014146</v>
       </c>
       <c r="W7">
-        <v>18.40919107016061</v>
+        <v>20.67364127356541</v>
       </c>
       <c r="X7">
-        <v>17.99934582494217</v>
+        <v>20.36563099491228</v>
       </c>
       <c r="Y7">
-        <v>17.59542070650147</v>
+        <v>20.05962280590607</v>
       </c>
       <c r="Z7">
-        <v>17.21360648941674</v>
+        <v>19.77335431206971</v>
       </c>
       <c r="AA7">
-        <v>16.83013015234076</v>
+        <v>19.47669475880904</v>
       </c>
       <c r="AB7">
-        <v>16.45669539694642</v>
+        <v>19.18580433317074</v>
       </c>
       <c r="AC7">
-        <v>16.10168702331433</v>
+        <v>18.91028803312263</v>
       </c>
       <c r="AD7">
-        <v>15.72758882769327</v>
+        <v>18.60793110954841</v>
       </c>
       <c r="AE7">
-        <v>15.11417315251868</v>
+        <v>18.03503739222929</v>
       </c>
       <c r="AF7">
-        <v>14.59655848249981</v>
+        <v>17.55798172440227</v>
       </c>
       <c r="AG7">
-        <v>14.19871999899695</v>
+        <v>17.20768481999297</v>
       </c>
       <c r="AH7">
-        <v>13.86519171985325</v>
+        <v>16.92363480254688</v>
       </c>
       <c r="AI7">
-        <v>13.53000362024693</v>
+        <v>16.63232551668535</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1427,94 +1424,94 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>6.225470432316525</v>
+        <v>6.368761131306175</v>
       </c>
       <c r="K8">
-        <v>6.073324311502565</v>
+        <v>6.356612571739798</v>
       </c>
       <c r="L8">
-        <v>5.90166261314831</v>
+        <v>6.321763117062716</v>
       </c>
       <c r="M8">
-        <v>5.714623719002252</v>
+        <v>6.268173369720524</v>
       </c>
       <c r="N8">
-        <v>5.520909732937124</v>
+        <v>6.203575756548829</v>
       </c>
       <c r="O8">
-        <v>5.32756124302371</v>
+        <v>6.133489320517088</v>
       </c>
       <c r="P8">
-        <v>5.141025633589085</v>
+        <v>6.065297743879735</v>
       </c>
       <c r="Q8">
-        <v>4.95952306428323</v>
+        <v>5.999251543351652</v>
       </c>
       <c r="R8">
-        <v>4.780774707710501</v>
+        <v>5.933491387642596</v>
       </c>
       <c r="S8">
-        <v>4.605024114406246</v>
+        <v>5.865258225988526</v>
       </c>
       <c r="T8">
-        <v>4.432448749069453</v>
+        <v>5.797568307167149</v>
       </c>
       <c r="U8">
-        <v>4.265725212859214</v>
+        <v>5.735088878267989</v>
       </c>
       <c r="V8">
-        <v>4.099982620392689</v>
+        <v>5.670475766209797</v>
       </c>
       <c r="W8">
-        <v>3.93116250247533</v>
+        <v>5.599052708525908</v>
       </c>
       <c r="X8">
-        <v>3.768442489715721</v>
+        <v>5.53217662277725</v>
       </c>
       <c r="Y8">
-        <v>3.606232519836247</v>
+        <v>5.466126766234619</v>
       </c>
       <c r="Z8">
-        <v>3.447237688196249</v>
+        <v>5.40379004284428</v>
       </c>
       <c r="AA8">
-        <v>3.292888501866081</v>
+        <v>5.344946403459401</v>
       </c>
       <c r="AB8">
-        <v>3.144065608009149</v>
+        <v>5.29161774797319</v>
       </c>
       <c r="AC8">
-        <v>3.000181043291622</v>
+        <v>5.244444877572956</v>
       </c>
       <c r="AD8">
-        <v>2.856046472780752</v>
+        <v>5.195275958031445</v>
       </c>
       <c r="AE8">
-        <v>2.71265474544314</v>
+        <v>5.144190233719994</v>
       </c>
       <c r="AF8">
-        <v>2.571546862616319</v>
+        <v>5.095391294515135</v>
       </c>
       <c r="AG8">
-        <v>2.431839851741906</v>
+        <v>5.046038986307998</v>
       </c>
       <c r="AH8">
-        <v>2.293539067937368</v>
+        <v>4.996196017937683</v>
       </c>
       <c r="AI8">
-        <v>2.155828082184216</v>
+        <v>4.944147873463012</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1522,94 +1519,94 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>49.8082862949956</v>
+        <v>50.40027862007953</v>
       </c>
       <c r="K9">
-        <v>49.33266501488139</v>
+        <v>50.5002136864148</v>
       </c>
       <c r="L9">
-        <v>48.67570209604272</v>
+        <v>50.40443587287027</v>
       </c>
       <c r="M9">
-        <v>47.87007492872574</v>
+        <v>50.14438116159362</v>
       </c>
       <c r="N9">
-        <v>46.94743501316117</v>
+        <v>49.74536723433329</v>
       </c>
       <c r="O9">
-        <v>45.98803507971795</v>
+        <v>49.28206416166542</v>
       </c>
       <c r="P9">
-        <v>45.08408214688581</v>
+        <v>48.8538173957765</v>
       </c>
       <c r="Q9">
-        <v>44.20589079409646</v>
+        <v>48.43667839827094</v>
       </c>
       <c r="R9">
-        <v>43.31950977480894</v>
+        <v>47.99279144486136</v>
       </c>
       <c r="S9">
-        <v>42.44573096057446</v>
+        <v>47.53976068175864</v>
       </c>
       <c r="T9">
-        <v>41.58318071715276</v>
+        <v>47.08409276503006</v>
       </c>
       <c r="U9">
-        <v>40.76355959413295</v>
+        <v>46.66594695460881</v>
       </c>
       <c r="V9">
-        <v>39.9376655380256</v>
+        <v>46.22533542118666</v>
       </c>
       <c r="W9">
-        <v>39.08208450950706</v>
+        <v>45.73837084987677</v>
       </c>
       <c r="X9">
-        <v>38.25543284775688</v>
+        <v>45.26788945529077</v>
       </c>
       <c r="Y9">
-        <v>37.43196550828323</v>
+        <v>44.79724783272321</v>
       </c>
       <c r="Z9">
-        <v>36.62444875378687</v>
+        <v>44.33998216327989</v>
       </c>
       <c r="AA9">
-        <v>35.87323251863984</v>
+        <v>43.93955925468955</v>
       </c>
       <c r="AB9">
-        <v>35.16632824503508</v>
+        <v>43.58099857842837</v>
       </c>
       <c r="AC9">
-        <v>34.48952539650616</v>
+        <v>43.24950165067892</v>
       </c>
       <c r="AD9">
-        <v>33.81474174557837</v>
+        <v>42.91544537798249</v>
       </c>
       <c r="AE9">
-        <v>33.12925791844305</v>
+        <v>42.55686576589038</v>
       </c>
       <c r="AF9">
-        <v>32.46036015614347</v>
+        <v>42.21181374743049</v>
       </c>
       <c r="AG9">
-        <v>31.81087859223284</v>
+        <v>41.88037460859962</v>
       </c>
       <c r="AH9">
-        <v>31.16049554089396</v>
+        <v>41.53568244340678</v>
       </c>
       <c r="AI9">
-        <v>30.51599210167777</v>
+        <v>41.19204886058001</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1617,94 +1614,94 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10">
-        <v>22.54139342997317</v>
+        <v>22.92280659246196</v>
       </c>
       <c r="K10">
-        <v>22.11677704671757</v>
+        <v>22.86939121582953</v>
       </c>
       <c r="L10">
-        <v>21.6408848968399</v>
+        <v>22.75743690187424</v>
       </c>
       <c r="M10">
-        <v>21.12112544399007</v>
+        <v>22.59427044666141</v>
       </c>
       <c r="N10">
-        <v>20.55700938922362</v>
+        <v>22.37307798601312</v>
       </c>
       <c r="O10">
-        <v>19.98546725315713</v>
+        <v>22.12619524571686</v>
       </c>
       <c r="P10">
-        <v>19.43808667880148</v>
+        <v>21.89139428270876</v>
       </c>
       <c r="Q10">
-        <v>18.92895128152483</v>
+        <v>21.69467429376838</v>
       </c>
       <c r="R10">
-        <v>18.4053951058567</v>
+        <v>21.46982545283496</v>
       </c>
       <c r="S10">
-        <v>17.90322539680398</v>
+        <v>21.25701021833325</v>
       </c>
       <c r="T10">
-        <v>17.4110093930238</v>
+        <v>21.04623211667161</v>
       </c>
       <c r="U10">
-        <v>16.93932082004055</v>
+        <v>20.85527107928181</v>
       </c>
       <c r="V10">
-        <v>16.47410551801598</v>
+        <v>20.66380316226643</v>
       </c>
       <c r="W10">
-        <v>15.9962897611996</v>
+        <v>20.45077508059216</v>
       </c>
       <c r="X10">
-        <v>15.52984910519622</v>
+        <v>20.24176906547743</v>
       </c>
       <c r="Y10">
-        <v>15.06632010279247</v>
+        <v>20.03747236154814</v>
       </c>
       <c r="Z10">
-        <v>14.60689781236174</v>
+        <v>19.83607292834253</v>
       </c>
       <c r="AA10">
-        <v>14.17024680343794</v>
+        <v>19.65749802511537</v>
       </c>
       <c r="AB10">
-        <v>13.75191401301913</v>
+        <v>19.49364491760717</v>
       </c>
       <c r="AC10">
-        <v>13.3421000428985</v>
+        <v>19.33778084770777</v>
       </c>
       <c r="AD10">
-        <v>12.93937581149909</v>
+        <v>19.19814389712709</v>
       </c>
       <c r="AE10">
-        <v>12.53383332062714</v>
+        <v>19.05165222938084</v>
       </c>
       <c r="AF10">
-        <v>12.13247770863203</v>
+        <v>18.91349796501839</v>
       </c>
       <c r="AG10">
-        <v>11.73787308467995</v>
+        <v>18.77822827032955</v>
       </c>
       <c r="AH10">
-        <v>11.34543783924259</v>
+        <v>18.63113832870368</v>
       </c>
       <c r="AI10">
-        <v>10.95513929116811</v>
+        <v>18.49365429919545</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1712,94 +1709,94 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11">
-        <v>115.6236526520652</v>
+        <v>116.7253064509362</v>
       </c>
       <c r="K11">
-        <v>114.6359838102382</v>
+        <v>116.8076655322594</v>
       </c>
       <c r="L11">
-        <v>113.2560146112275</v>
+        <v>116.469948450933</v>
       </c>
       <c r="M11">
-        <v>111.6141523546061</v>
+        <v>115.8417919786535</v>
       </c>
       <c r="N11">
-        <v>109.6060949067272</v>
+        <v>114.8044968880148</v>
       </c>
       <c r="O11">
-        <v>107.5105637567725</v>
+        <v>113.6271714113372</v>
       </c>
       <c r="P11">
-        <v>105.5132217465534</v>
+        <v>112.5074311251465</v>
       </c>
       <c r="Q11">
-        <v>103.5323139180243</v>
+        <v>111.372748009933</v>
       </c>
       <c r="R11">
-        <v>101.5288405702236</v>
+        <v>110.1785033719196</v>
       </c>
       <c r="S11">
-        <v>99.54765207518862</v>
+        <v>108.9629383160951</v>
       </c>
       <c r="T11">
-        <v>97.57437234903524</v>
+        <v>107.7259102265888</v>
       </c>
       <c r="U11">
-        <v>95.66396167122463</v>
+        <v>106.5360650434601</v>
       </c>
       <c r="V11">
-        <v>93.73393530481431</v>
+        <v>105.2979959704146</v>
       </c>
       <c r="W11">
-        <v>91.7001782986824</v>
+        <v>103.9207973003365</v>
       </c>
       <c r="X11">
-        <v>89.73758968905837</v>
+        <v>102.5915492639961</v>
       </c>
       <c r="Y11">
-        <v>87.82261777903858</v>
+        <v>101.3087790027688</v>
       </c>
       <c r="Z11">
-        <v>85.95571813224964</v>
+        <v>100.0649526783978</v>
       </c>
       <c r="AA11">
-        <v>84.19177044951708</v>
+        <v>98.91492948525321</v>
       </c>
       <c r="AB11">
-        <v>82.51966403999872</v>
+        <v>97.84237880074197</v>
       </c>
       <c r="AC11">
-        <v>80.9472839955303</v>
+        <v>96.86086380130203</v>
       </c>
       <c r="AD11">
-        <v>79.32692542639508</v>
+        <v>95.81449461638849</v>
       </c>
       <c r="AE11">
-        <v>77.71572981202361</v>
+        <v>94.75160756333423</v>
       </c>
       <c r="AF11">
-        <v>76.17767330323704</v>
+        <v>93.7529983066086</v>
       </c>
       <c r="AG11">
-        <v>74.70337282596736</v>
+        <v>92.8062732318883</v>
       </c>
       <c r="AH11">
-        <v>73.21268293057065</v>
+        <v>91.81831296779546</v>
       </c>
       <c r="AI11">
-        <v>71.68950585343606</v>
+        <v>90.78626670291915</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1807,94 +1804,94 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
-        <v>35.49426168047408</v>
+        <v>35.90817641049743</v>
       </c>
       <c r="K12">
-        <v>34.94183625962808</v>
+        <v>35.75996012672687</v>
       </c>
       <c r="L12">
-        <v>34.32600250030769</v>
+        <v>35.542475001476</v>
       </c>
       <c r="M12">
-        <v>33.65382423268559</v>
+        <v>35.26289036053966</v>
       </c>
       <c r="N12">
-        <v>32.89259530290869</v>
+        <v>34.88041297721847</v>
       </c>
       <c r="O12">
-        <v>32.0951647380108</v>
+        <v>34.44129467933355</v>
       </c>
       <c r="P12">
-        <v>31.33058411741817</v>
+        <v>34.02342578545308</v>
       </c>
       <c r="Q12">
-        <v>30.6632819469696</v>
+        <v>33.70849055790205</v>
       </c>
       <c r="R12">
-        <v>29.95019842107698</v>
+        <v>33.33206559843683</v>
       </c>
       <c r="S12">
-        <v>29.27913574660229</v>
+        <v>32.99037943746736</v>
       </c>
       <c r="T12">
-        <v>28.61786294828729</v>
+        <v>32.65066957616534</v>
       </c>
       <c r="U12">
-        <v>27.99045910596702</v>
+        <v>32.34691381735067</v>
       </c>
       <c r="V12">
-        <v>27.38072384052897</v>
+        <v>32.05672947241342</v>
       </c>
       <c r="W12">
-        <v>26.74558262754449</v>
+        <v>31.7342982345285</v>
       </c>
       <c r="X12">
-        <v>26.12373346124152</v>
+        <v>31.4199139393395</v>
       </c>
       <c r="Y12">
-        <v>25.50918047925974</v>
+        <v>31.11631391269446</v>
       </c>
       <c r="Z12">
-        <v>24.89346786708476</v>
+        <v>30.80864035754582</v>
       </c>
       <c r="AA12">
-        <v>24.30307094557839</v>
+        <v>30.52323954004452</v>
       </c>
       <c r="AB12">
-        <v>23.73310800170027</v>
+        <v>30.25132654956929</v>
       </c>
       <c r="AC12">
-        <v>23.17284522458047</v>
+        <v>29.99122616733678</v>
       </c>
       <c r="AD12">
-        <v>22.64361609431735</v>
+        <v>29.78183364491345</v>
       </c>
       <c r="AE12">
-        <v>22.11454379860755</v>
+        <v>29.57518637307612</v>
       </c>
       <c r="AF12">
-        <v>21.59494817722453</v>
+        <v>29.38973130761391</v>
       </c>
       <c r="AG12">
-        <v>21.07674879302023</v>
+        <v>29.20039648437767</v>
       </c>
       <c r="AH12">
-        <v>20.54653641640402</v>
+        <v>28.97623718710816</v>
       </c>
       <c r="AI12">
-        <v>20.03208566206456</v>
+        <v>28.78381827008614</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1902,94 +1899,94 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13">
-        <v>6.46421946077341</v>
+        <v>6.554072137045813</v>
       </c>
       <c r="K13">
-        <v>6.382055407183009</v>
+        <v>6.561334467957162</v>
       </c>
       <c r="L13">
-        <v>6.279344957347987</v>
+        <v>6.547818058847078</v>
       </c>
       <c r="M13">
-        <v>6.160176443669599</v>
+        <v>6.51781468066505</v>
       </c>
       <c r="N13">
-        <v>6.029652261421942</v>
+        <v>6.475513514632357</v>
       </c>
       <c r="O13">
-        <v>5.894736454017243</v>
+        <v>6.426846274337856</v>
       </c>
       <c r="P13">
-        <v>5.762351984447791</v>
+        <v>6.379915251866976</v>
       </c>
       <c r="Q13">
-        <v>5.635490639176368</v>
+        <v>6.339596573565162</v>
       </c>
       <c r="R13">
-        <v>5.508933739896458</v>
+        <v>6.298594198663341</v>
       </c>
       <c r="S13">
-        <v>5.38517574826639</v>
+        <v>6.259995119335163</v>
       </c>
       <c r="T13">
-        <v>5.262369006810156</v>
+        <v>6.222242038142597</v>
       </c>
       <c r="U13">
-        <v>5.144476518176501</v>
+        <v>6.190957768491709</v>
       </c>
       <c r="V13">
-        <v>5.024414870759996</v>
+        <v>6.155581768169824</v>
       </c>
       <c r="W13">
-        <v>4.897908966505593</v>
+        <v>6.111681263457971</v>
       </c>
       <c r="X13">
-        <v>4.77433858158307</v>
+        <v>6.070166075309336</v>
       </c>
       <c r="Y13">
-        <v>4.650038272599908</v>
+        <v>6.029976675595766</v>
       </c>
       <c r="Z13">
-        <v>4.527438072254895</v>
+        <v>5.994267905175845</v>
       </c>
       <c r="AA13">
-        <v>4.40833856540609</v>
+        <v>5.964589160420928</v>
       </c>
       <c r="AB13">
-        <v>4.292498356232385</v>
+        <v>5.939304303950918</v>
       </c>
       <c r="AC13">
-        <v>4.18070477827027</v>
+        <v>5.921468650692464</v>
       </c>
       <c r="AD13">
-        <v>4.065833746423843</v>
+        <v>5.901400687232401</v>
       </c>
       <c r="AE13">
-        <v>3.947509872480517</v>
+        <v>5.876149743620617</v>
       </c>
       <c r="AF13">
-        <v>3.829522333726271</v>
+        <v>5.85282038540314</v>
       </c>
       <c r="AG13">
-        <v>3.71170445172821</v>
+        <v>5.831384154298674</v>
       </c>
       <c r="AH13">
-        <v>3.593045882876649</v>
+        <v>5.807811303214702</v>
       </c>
       <c r="AI13">
-        <v>3.471958118072507</v>
+        <v>5.781875104960438</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1997,94 +1994,94 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14">
-        <v>87.14922319636298</v>
+        <v>88.4722218940274</v>
       </c>
       <c r="K14">
-        <v>85.19319139111971</v>
+        <v>87.79465895725059</v>
       </c>
       <c r="L14">
-        <v>83.03824679485142</v>
+        <v>86.88136311639107</v>
       </c>
       <c r="M14">
-        <v>80.73939637955409</v>
+        <v>85.78573426175929</v>
       </c>
       <c r="N14">
-        <v>78.42486312143566</v>
+        <v>84.62467675674594</v>
       </c>
       <c r="O14">
-        <v>76.14922811499406</v>
+        <v>83.43639506851416</v>
       </c>
       <c r="P14">
-        <v>74.05187422959317</v>
+        <v>82.38608758497337</v>
       </c>
       <c r="Q14">
-        <v>72.03394077308896</v>
+        <v>81.39291998653593</v>
       </c>
       <c r="R14">
-        <v>69.96105629036811</v>
+        <v>80.28097308911111</v>
       </c>
       <c r="S14">
-        <v>67.98440255619586</v>
+        <v>79.22656301818064</v>
       </c>
       <c r="T14">
-        <v>66.0619842476371</v>
+        <v>78.20182212715544</v>
       </c>
       <c r="U14">
-        <v>64.18078902605866</v>
+        <v>77.2014787723481</v>
       </c>
       <c r="V14">
-        <v>62.30097021921095</v>
+        <v>76.15693079074597</v>
       </c>
       <c r="W14">
-        <v>60.37573432368679</v>
+        <v>75.00961175668381</v>
       </c>
       <c r="X14">
-        <v>58.51777846027903</v>
+        <v>73.90605928320157</v>
       </c>
       <c r="Y14">
-        <v>56.71716186304842</v>
+        <v>72.87928319922581</v>
       </c>
       <c r="Z14">
-        <v>54.96419523232001</v>
+        <v>71.90808258546365</v>
       </c>
       <c r="AA14">
-        <v>53.29670849559248</v>
+        <v>71.03785509932372</v>
       </c>
       <c r="AB14">
-        <v>51.67159992971948</v>
+        <v>70.18699024909813</v>
       </c>
       <c r="AC14">
-        <v>50.08533511878111</v>
+        <v>69.36992417205064</v>
       </c>
       <c r="AD14">
-        <v>48.51282699664763</v>
+        <v>68.56115897474689</v>
       </c>
       <c r="AE14">
-        <v>46.93622230885428</v>
+        <v>67.71011263004063</v>
       </c>
       <c r="AF14">
-        <v>45.40522287338873</v>
+        <v>66.91771874756101</v>
       </c>
       <c r="AG14">
-        <v>43.884888397181</v>
+        <v>66.12644830033773</v>
       </c>
       <c r="AH14">
-        <v>42.37884616600369</v>
+        <v>65.3231650390283</v>
       </c>
       <c r="AI14">
-        <v>40.88740973254608</v>
+        <v>64.54263721936321</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2092,94 +2089,94 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15">
-        <v>58.13196326962178</v>
+        <v>58.65806300352548</v>
       </c>
       <c r="K15">
-        <v>57.57820745207872</v>
+        <v>58.61047283852213</v>
       </c>
       <c r="L15">
-        <v>56.91109802304896</v>
+        <v>58.43329658072278</v>
       </c>
       <c r="M15">
-        <v>56.19353178555402</v>
+        <v>58.19069968652637</v>
       </c>
       <c r="N15">
-        <v>55.27178255996924</v>
+        <v>57.72332789716836</v>
       </c>
       <c r="O15">
-        <v>54.32576042392949</v>
+        <v>57.20799091748452</v>
       </c>
       <c r="P15">
-        <v>53.4026158333004</v>
+        <v>56.6950202027126</v>
       </c>
       <c r="Q15">
-        <v>52.4732840685888</v>
+        <v>56.15890002725254</v>
       </c>
       <c r="R15">
-        <v>51.5486991125544</v>
+        <v>55.61059987936925</v>
       </c>
       <c r="S15">
-        <v>50.63189013611493</v>
+        <v>55.04670255015379</v>
       </c>
       <c r="T15">
-        <v>49.71813143307833</v>
+        <v>54.47198034273833</v>
       </c>
       <c r="U15">
-        <v>48.81873665133978</v>
+        <v>53.90100084669709</v>
       </c>
       <c r="V15">
-        <v>47.89734876926835</v>
+        <v>53.29551000102638</v>
       </c>
       <c r="W15">
-        <v>46.93169678119444</v>
+        <v>52.63141989743783</v>
       </c>
       <c r="X15">
-        <v>45.98784766656672</v>
+        <v>51.97766105480422</v>
       </c>
       <c r="Y15">
-        <v>45.07557661427737</v>
+        <v>51.35364163211761</v>
       </c>
       <c r="Z15">
-        <v>44.18201224349816</v>
+        <v>50.74105305759504</v>
       </c>
       <c r="AA15">
-        <v>43.32858433997516</v>
+        <v>50.16060715363588</v>
       </c>
       <c r="AB15">
-        <v>42.50424131419614</v>
+        <v>49.59915487882209</v>
       </c>
       <c r="AC15">
-        <v>41.75101411831309</v>
+        <v>49.10522433982582</v>
       </c>
       <c r="AD15">
-        <v>40.95839699056778</v>
+        <v>48.56365698105014</v>
       </c>
       <c r="AE15">
-        <v>40.1798940470387</v>
+        <v>48.02473879317735</v>
       </c>
       <c r="AF15">
-        <v>39.44316261777547</v>
+        <v>47.52149478658289</v>
       </c>
       <c r="AG15">
-        <v>38.75615229086488</v>
+        <v>47.06104596838065</v>
       </c>
       <c r="AH15">
-        <v>38.05147161182224</v>
+        <v>46.57245119982979</v>
       </c>
       <c r="AI15">
-        <v>37.30841233118294</v>
+        <v>46.03574024074533</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2187,94 +2184,94 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16">
-        <v>-5.184763535319687</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>-10.21758021688823</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-15.12282207344918</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-19.89697830505682</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-24.47774495938184</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>-28.80798926664433</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>-32.95635544877639</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-37.00416500900876</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>-40.86067371039709</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-44.54003363965741</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>-48.09664458663083</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>-51.59510964555451</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>-54.95731020486915</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-58.15210812164398</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-61.24770819098297</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>-64.35941244362733</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-67.45614751431432</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-70.53575256798331</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>-73.54401725275834</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>-76.53211718584511</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>-79.49915371636136</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>-82.31878573467966</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>-85.15107067536189</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>-87.94592783777718</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>-90.62511354894623</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>-93.29576290145383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2282,16 +2279,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>224.2713334278954</v>
@@ -2377,16 +2374,16 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>4.439780828997264</v>
@@ -2472,16 +2469,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>207.1583101801937</v>
@@ -2567,16 +2564,16 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2662,16 +2659,16 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2757,94 +2754,94 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22">
-        <v>419.5770243597627</v>
+        <v>423.9495725023797</v>
       </c>
       <c r="K22">
-        <v>414.7727891344051</v>
+        <v>423.3710041136947</v>
       </c>
       <c r="L22">
-        <v>408.6442653237735</v>
+        <v>421.336887110721</v>
       </c>
       <c r="M22">
-        <v>401.6658743148702</v>
+        <v>418.3186666636508</v>
       </c>
       <c r="N22">
-        <v>393.797968511273</v>
+        <v>414.2238401260375</v>
       </c>
       <c r="O22">
-        <v>385.7483238947824</v>
+        <v>409.7149672135649</v>
       </c>
       <c r="P22">
-        <v>378.1579542600539</v>
+        <v>405.4821385364264</v>
       </c>
       <c r="Q22">
-        <v>370.805204387641</v>
+        <v>401.3598914635922</v>
       </c>
       <c r="R22">
-        <v>363.2418114984594</v>
+        <v>396.8599019413045</v>
       </c>
       <c r="S22">
-        <v>355.8613454902498</v>
+        <v>392.3550191200787</v>
       </c>
       <c r="T22">
-        <v>348.5284753528966</v>
+        <v>387.7673876530685</v>
       </c>
       <c r="U22">
-        <v>341.4310993292146</v>
+        <v>383.3334384494239</v>
       </c>
       <c r="V22">
-        <v>334.29974420968</v>
+        <v>378.7359201349849</v>
       </c>
       <c r="W22">
-        <v>326.8450758144338</v>
+        <v>373.6609117607749</v>
       </c>
       <c r="X22">
-        <v>319.6514018549109</v>
+        <v>368.7470401259336</v>
       </c>
       <c r="Y22">
-        <v>312.63772532314</v>
+        <v>364.0004800924577</v>
       </c>
       <c r="Z22">
-        <v>305.8450465682249</v>
+        <v>359.4363596839132</v>
       </c>
       <c r="AA22">
-        <v>299.443783615635</v>
+        <v>355.2141912559873</v>
       </c>
       <c r="AB22">
-        <v>293.3309334317012</v>
+        <v>351.2082835368328</v>
       </c>
       <c r="AC22">
-        <v>287.530826884669</v>
+        <v>347.4598678347224</v>
       </c>
       <c r="AD22">
-        <v>281.688031470468</v>
+        <v>343.6084145466515</v>
       </c>
       <c r="AE22">
-        <v>275.5019597929394</v>
+        <v>339.2598707232445</v>
       </c>
       <c r="AF22">
-        <v>269.6871405744772</v>
+        <v>335.2510742536533</v>
       </c>
       <c r="AG22">
-        <v>264.2252578053593</v>
+        <v>331.5393194457177</v>
       </c>
       <c r="AH22">
-        <v>258.8625319291613</v>
+        <v>327.8396108661444</v>
       </c>
       <c r="AI22">
-        <v>253.495587086238</v>
+        <v>324.0853914970469</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2852,94 +2849,94 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23">
-        <v>11.10763654200388</v>
+        <v>11.91985193470666</v>
       </c>
       <c r="K23">
-        <v>10.02697664611272</v>
+        <v>11.64634188371139</v>
       </c>
       <c r="L23">
-        <v>9.023624218560268</v>
+        <v>11.45382450506194</v>
       </c>
       <c r="M23">
-        <v>8.011705351010871</v>
+        <v>11.25589130728711</v>
       </c>
       <c r="N23">
-        <v>6.97274026796797</v>
+        <v>11.0246136125854</v>
       </c>
       <c r="O23">
-        <v>5.937828050500788</v>
+        <v>10.77917399836259</v>
       </c>
       <c r="P23">
-        <v>4.895329513519178</v>
+        <v>10.52750068592304</v>
       </c>
       <c r="Q23">
-        <v>3.916328246784874</v>
+        <v>10.36580617984241</v>
       </c>
       <c r="R23">
-        <v>3.002756306697036</v>
+        <v>10.24533957424894</v>
       </c>
       <c r="S23">
-        <v>2.133929949756971</v>
+        <v>10.1802899595855</v>
       </c>
       <c r="T23">
-        <v>1.30769245381716</v>
+        <v>10.16542474027614</v>
       </c>
       <c r="U23">
-        <v>0.5118554045706799</v>
+        <v>10.20462592991589</v>
       </c>
       <c r="V23">
-        <v>-0.255063778837639</v>
+        <v>10.26607050072662</v>
       </c>
       <c r="W23">
-        <v>-0.9992704338517331</v>
+        <v>10.3370017414511</v>
       </c>
       <c r="X23">
-        <v>-1.736391653007734</v>
+        <v>10.41567826695248</v>
       </c>
       <c r="Y23">
-        <v>-2.486124641557987</v>
+        <v>10.51053303275173</v>
       </c>
       <c r="Z23">
-        <v>-3.276087139837428</v>
+        <v>10.58874725878858</v>
       </c>
       <c r="AA23">
-        <v>-4.102008984261015</v>
+        <v>10.66333594337003</v>
       </c>
       <c r="AB23">
-        <v>-4.93568975776911</v>
+        <v>10.73097738985764</v>
       </c>
       <c r="AC23">
-        <v>-5.776014917331832</v>
+        <v>10.82706131845988</v>
       </c>
       <c r="AD23">
-        <v>-6.631522640199984</v>
+        <v>10.94724799997783</v>
       </c>
       <c r="AE23">
-        <v>-7.474046965469976</v>
+        <v>11.0868278389045</v>
       </c>
       <c r="AF23">
-        <v>-8.348839718306529</v>
+        <v>11.23829727787933</v>
       </c>
       <c r="AG23">
-        <v>-9.248407288713144</v>
+        <v>11.38345890870564</v>
       </c>
       <c r="AH23">
-        <v>-10.17869174137392</v>
+        <v>11.46934287058932</v>
       </c>
       <c r="AI23">
-        <v>-11.13655264291734</v>
+        <v>11.56940584772758</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2947,16 +2944,16 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3042,16 +3039,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3137,16 +3134,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3232,16 +3229,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3327,16 +3324,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3422,16 +3419,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3517,16 +3514,16 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3612,16 +3609,16 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31">
         <v>0.2649</v>
@@ -3719,16 +3716,16 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32">
         <v>0.2649</v>
@@ -3826,16 +3823,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <v>0.2649</v>
@@ -3933,16 +3930,16 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34">
         <v>0.2649</v>
@@ -4040,16 +4037,16 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>20.5893</v>
@@ -4147,16 +4144,16 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>20.5893</v>
@@ -4254,16 +4251,16 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37">
         <v>20.5893</v>
@@ -4361,16 +4358,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38">
         <v>20.5893</v>
@@ -4468,16 +4465,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <v>2.1032</v>
@@ -4575,16 +4572,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40">
         <v>2.1032</v>
@@ -4682,16 +4679,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41">
         <v>2.1032</v>
@@ -4789,16 +4786,16 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42">
         <v>2.1032</v>
@@ -4889,434 +4886,6 @@
       </c>
       <c r="AI42">
         <v>411.7084706158577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43">
-        <v>999</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>999</v>
-      </c>
-      <c r="I43">
-        <v>999</v>
-      </c>
-      <c r="J43">
-        <v>8.656551993817624</v>
-      </c>
-      <c r="K43">
-        <v>17.06734211680936</v>
-      </c>
-      <c r="L43">
-        <v>25.27685810631396</v>
-      </c>
-      <c r="M43">
-        <v>33.27994074448203</v>
-      </c>
-      <c r="N43">
-        <v>40.96867923068965</v>
-      </c>
-      <c r="O43">
-        <v>48.24351630430255</v>
-      </c>
-      <c r="P43">
-        <v>55.22639721414277</v>
-      </c>
-      <c r="Q43">
-        <v>62.07162205227235</v>
-      </c>
-      <c r="R43">
-        <v>68.59696941741691</v>
-      </c>
-      <c r="S43">
-        <v>74.84526005886414</v>
-      </c>
-      <c r="T43">
-        <v>80.89921351459112</v>
-      </c>
-      <c r="U43">
-        <v>86.87282742510504</v>
-      </c>
-      <c r="V43">
-        <v>92.62984060038582</v>
-      </c>
-      <c r="W43">
-        <v>98.11462700673279</v>
-      </c>
-      <c r="X43">
-        <v>103.4420292969969</v>
-      </c>
-      <c r="Y43">
-        <v>108.8105736429513</v>
-      </c>
-      <c r="Z43">
-        <v>114.1619512235895</v>
-      </c>
-      <c r="AA43">
-        <v>119.4956777288479</v>
-      </c>
-      <c r="AB43">
-        <v>124.7117499604612</v>
-      </c>
-      <c r="AC43">
-        <v>129.9070749212456</v>
-      </c>
-      <c r="AD43">
-        <v>135.1042028885322</v>
-      </c>
-      <c r="AE43">
-        <v>140.0787294782425</v>
-      </c>
-      <c r="AF43">
-        <v>145.0973945926501</v>
-      </c>
-      <c r="AG43">
-        <v>150.0581098026043</v>
-      </c>
-      <c r="AH43">
-        <v>154.8077356283012</v>
-      </c>
-      <c r="AI43">
-        <v>159.5763613813873</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44">
-        <v>999</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>999</v>
-      </c>
-      <c r="I44">
-        <v>999</v>
-      </c>
-      <c r="J44">
-        <v>13.84131552913675</v>
-      </c>
-      <c r="K44">
-        <v>27.28492233369789</v>
-      </c>
-      <c r="L44">
-        <v>40.39968017976293</v>
-      </c>
-      <c r="M44">
-        <v>53.17691904953881</v>
-      </c>
-      <c r="N44">
-        <v>65.44642419007054</v>
-      </c>
-      <c r="O44">
-        <v>77.05150557094703</v>
-      </c>
-      <c r="P44">
-        <v>88.18275266292007</v>
-      </c>
-      <c r="Q44">
-        <v>99.07578706128113</v>
-      </c>
-      <c r="R44">
-        <v>109.4576431278145</v>
-      </c>
-      <c r="S44">
-        <v>119.385293698522</v>
-      </c>
-      <c r="T44">
-        <v>128.9958581012217</v>
-      </c>
-      <c r="U44">
-        <v>138.4679370706598</v>
-      </c>
-      <c r="V44">
-        <v>147.5871508052558</v>
-      </c>
-      <c r="W44">
-        <v>156.2667351283769</v>
-      </c>
-      <c r="X44">
-        <v>164.6897374879804</v>
-      </c>
-      <c r="Y44">
-        <v>173.1699860865786</v>
-      </c>
-      <c r="Z44">
-        <v>181.6180987379033</v>
-      </c>
-      <c r="AA44">
-        <v>190.0314302968312</v>
-      </c>
-      <c r="AB44">
-        <v>198.2557672132194</v>
-      </c>
-      <c r="AC44">
-        <v>206.4391921070904</v>
-      </c>
-      <c r="AD44">
-        <v>214.6033566048945</v>
-      </c>
-      <c r="AE44">
-        <v>222.3975152129217</v>
-      </c>
-      <c r="AF44">
-        <v>230.248465268012</v>
-      </c>
-      <c r="AG44">
-        <v>238.0040376403803</v>
-      </c>
-      <c r="AH44">
-        <v>245.4328491772472</v>
-      </c>
-      <c r="AI44">
-        <v>252.8721242828404</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45">
-        <v>999</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>999</v>
-      </c>
-      <c r="I45">
-        <v>999</v>
-      </c>
-      <c r="J45">
-        <v>8.656551993817555</v>
-      </c>
-      <c r="K45">
-        <v>17.06734211680925</v>
-      </c>
-      <c r="L45">
-        <v>25.27685810631404</v>
-      </c>
-      <c r="M45">
-        <v>33.2799407444819</v>
-      </c>
-      <c r="N45">
-        <v>40.96867923068972</v>
-      </c>
-      <c r="O45">
-        <v>48.24351630430263</v>
-      </c>
-      <c r="P45">
-        <v>55.22639721414291</v>
-      </c>
-      <c r="Q45">
-        <v>62.0716220522723</v>
-      </c>
-      <c r="R45">
-        <v>68.59696941741682</v>
-      </c>
-      <c r="S45">
-        <v>74.84526005886414</v>
-      </c>
-      <c r="T45">
-        <v>80.89921351459117</v>
-      </c>
-      <c r="U45">
-        <v>86.8728274251051</v>
-      </c>
-      <c r="V45">
-        <v>92.62984060038568</v>
-      </c>
-      <c r="W45">
-        <v>98.11462700673293</v>
-      </c>
-      <c r="X45">
-        <v>103.4420292969968</v>
-      </c>
-      <c r="Y45">
-        <v>108.8105736429513</v>
-      </c>
-      <c r="Z45">
-        <v>114.1619512235896</v>
-      </c>
-      <c r="AA45">
-        <v>119.4956777288478</v>
-      </c>
-      <c r="AB45">
-        <v>124.7117499604611</v>
-      </c>
-      <c r="AC45">
-        <v>129.9070749212455</v>
-      </c>
-      <c r="AD45">
-        <v>135.104202888532</v>
-      </c>
-      <c r="AE45">
-        <v>140.0787294782425</v>
-      </c>
-      <c r="AF45">
-        <v>145.09739459265</v>
-      </c>
-      <c r="AG45">
-        <v>150.0581098026043</v>
-      </c>
-      <c r="AH45">
-        <v>154.8077356283011</v>
-      </c>
-      <c r="AI45">
-        <v>159.5763613813871</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46">
-        <v>999</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>999</v>
-      </c>
-      <c r="I46">
-        <v>999</v>
-      </c>
-      <c r="J46">
-        <v>13.84131552913665</v>
-      </c>
-      <c r="K46">
-        <v>27.28492233369778</v>
-      </c>
-      <c r="L46">
-        <v>40.39968017976293</v>
-      </c>
-      <c r="M46">
-        <v>53.17691904953872</v>
-      </c>
-      <c r="N46">
-        <v>65.44642419007067</v>
-      </c>
-      <c r="O46">
-        <v>77.05150557094697</v>
-      </c>
-      <c r="P46">
-        <v>88.18275266292017</v>
-      </c>
-      <c r="Q46">
-        <v>99.07578706128105</v>
-      </c>
-      <c r="R46">
-        <v>109.4576431278145</v>
-      </c>
-      <c r="S46">
-        <v>119.3852936985218</v>
-      </c>
-      <c r="T46">
-        <v>128.9958581012217</v>
-      </c>
-      <c r="U46">
-        <v>138.4679370706599</v>
-      </c>
-      <c r="V46">
-        <v>147.5871508052557</v>
-      </c>
-      <c r="W46">
-        <v>156.2667351283769</v>
-      </c>
-      <c r="X46">
-        <v>164.6897374879804</v>
-      </c>
-      <c r="Y46">
-        <v>173.1699860865786</v>
-      </c>
-      <c r="Z46">
-        <v>181.6180987379033</v>
-      </c>
-      <c r="AA46">
-        <v>190.031430296831</v>
-      </c>
-      <c r="AB46">
-        <v>198.2557672132194</v>
-      </c>
-      <c r="AC46">
-        <v>206.4391921070903</v>
-      </c>
-      <c r="AD46">
-        <v>214.6033566048945</v>
-      </c>
-      <c r="AE46">
-        <v>222.3975152129218</v>
-      </c>
-      <c r="AF46">
-        <v>230.2484652680119</v>
-      </c>
-      <c r="AG46">
-        <v>238.0040376403804</v>
-      </c>
-      <c r="AH46">
-        <v>245.4328491772473</v>
-      </c>
-      <c r="AI46">
-        <v>252.8721242828404</v>
       </c>
     </row>
   </sheetData>
@@ -5326,7 +4895,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5361,82 +4930,82 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -5444,85 +5013,85 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
-        <v>168.173698</v>
+        <v>166.828318</v>
       </c>
       <c r="K2">
-        <v>164.021078</v>
+        <v>161.480484</v>
       </c>
       <c r="L2">
-        <v>159.625052</v>
+        <v>156.026638</v>
       </c>
       <c r="M2">
-        <v>155.86898</v>
+        <v>151.293543</v>
       </c>
       <c r="N2">
-        <v>152.658251</v>
+        <v>147.163357</v>
       </c>
       <c r="O2">
-        <v>149.983973</v>
+        <v>143.632648</v>
       </c>
       <c r="P2">
-        <v>147.986158</v>
+        <v>140.812333</v>
       </c>
       <c r="Q2">
-        <v>146.350971</v>
+        <v>138.37501</v>
       </c>
       <c r="R2">
-        <v>145.283956</v>
+        <v>136.496265</v>
       </c>
       <c r="S2">
-        <v>143.73138</v>
+        <v>134.21606</v>
       </c>
       <c r="T2">
-        <v>142.541706</v>
+        <v>132.295416</v>
       </c>
       <c r="U2">
-        <v>141.444205</v>
+        <v>130.493247</v>
       </c>
       <c r="V2">
-        <v>140.24817</v>
+        <v>128.650396</v>
       </c>
       <c r="W2">
-        <v>139.06574</v>
+        <v>126.827634</v>
       </c>
       <c r="X2">
-        <v>138.025396</v>
+        <v>125.148478</v>
       </c>
       <c r="Y2">
-        <v>137.002123</v>
+        <v>123.502551</v>
       </c>
       <c r="Z2">
-        <v>136.225243</v>
+        <v>122.077037</v>
       </c>
       <c r="AA2">
-        <v>135.422117</v>
+        <v>120.656591</v>
       </c>
       <c r="AB2">
-        <v>134.575964</v>
+        <v>119.228983</v>
       </c>
       <c r="AC2">
-        <v>133.556706</v>
+        <v>117.700556</v>
       </c>
       <c r="AD2">
-        <v>132.687615</v>
+        <v>116.275264</v>
       </c>
       <c r="AE2">
-        <v>131.60043</v>
+        <v>114.685092</v>
       </c>
       <c r="AF2">
-        <v>130.682495</v>
+        <v>113.263637</v>
       </c>
       <c r="AG2">
-        <v>129.796702</v>
+        <v>111.893176</v>
       </c>
       <c r="AH2">
-        <v>129.04449</v>
+        <v>110.651339</v>
       </c>
       <c r="AI2">
-        <v>128.137678</v>
+        <v>109.286627</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -5530,85 +5099,85 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>94.648597</v>
+        <v>92.48029699999999</v>
       </c>
       <c r="K3">
-        <v>92.590378</v>
+        <v>88.489689</v>
       </c>
       <c r="L3">
-        <v>90.390286</v>
+        <v>84.574501</v>
       </c>
       <c r="M3">
-        <v>88.628496</v>
+        <v>81.228717</v>
       </c>
       <c r="N3">
-        <v>87.29350599999999</v>
+        <v>78.406797</v>
       </c>
       <c r="O3">
-        <v>86.322828</v>
+        <v>76.046859</v>
       </c>
       <c r="P3">
-        <v>85.788459</v>
+        <v>74.17635900000001</v>
       </c>
       <c r="Q3">
-        <v>85.504257</v>
+        <v>72.58546699999999</v>
       </c>
       <c r="R3">
-        <v>85.649305</v>
+        <v>71.417759</v>
       </c>
       <c r="S3">
-        <v>85.404718</v>
+        <v>70.000652</v>
       </c>
       <c r="T3">
-        <v>85.42906000000001</v>
+        <v>68.847981</v>
       </c>
       <c r="U3">
-        <v>85.487137</v>
+        <v>67.76634</v>
       </c>
       <c r="V3">
-        <v>85.46681700000001</v>
+        <v>66.68807</v>
       </c>
       <c r="W3">
-        <v>85.45215</v>
+        <v>65.639974</v>
       </c>
       <c r="X3">
-        <v>85.52590499999999</v>
+        <v>64.68631600000001</v>
       </c>
       <c r="Y3">
-        <v>85.61274400000001</v>
+        <v>63.769951</v>
       </c>
       <c r="Z3">
-        <v>85.890129</v>
+        <v>63.006098</v>
       </c>
       <c r="AA3">
-        <v>86.117744</v>
+        <v>62.238922</v>
       </c>
       <c r="AB3">
-        <v>86.268833</v>
+        <v>61.45109</v>
       </c>
       <c r="AC3">
-        <v>86.208894</v>
+        <v>60.563236</v>
       </c>
       <c r="AD3">
-        <v>86.31079</v>
+        <v>59.775136</v>
       </c>
       <c r="AE3">
-        <v>86.25591300000001</v>
+        <v>58.917222</v>
       </c>
       <c r="AF3">
-        <v>86.289839</v>
+        <v>58.146842</v>
       </c>
       <c r="AG3">
-        <v>86.311885</v>
+        <v>57.39161</v>
       </c>
       <c r="AH3">
-        <v>86.435136</v>
+        <v>56.727973</v>
       </c>
       <c r="AI3">
-        <v>86.429996</v>
+        <v>55.9929</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -5616,94 +5185,94 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4">
-        <v>73.52510299999999</v>
+        <v>74.34802000000001</v>
       </c>
       <c r="K4">
-        <v>71.43070200000001</v>
+        <v>72.990798</v>
       </c>
       <c r="L4">
-        <v>69.23476700000001</v>
+        <v>71.45213699999999</v>
       </c>
       <c r="M4">
-        <v>67.24048000000001</v>
+        <v>70.06482399999999</v>
       </c>
       <c r="N4">
-        <v>65.364749</v>
+        <v>68.756564</v>
       </c>
       <c r="O4">
-        <v>63.661146</v>
+        <v>67.58578899999999</v>
       </c>
       <c r="P4">
-        <v>62.197699</v>
+        <v>66.63597200000001</v>
       </c>
       <c r="Q4">
-        <v>60.846716</v>
+        <v>65.789545</v>
       </c>
       <c r="R4">
-        <v>59.634655</v>
+        <v>65.078509</v>
       </c>
       <c r="S4">
-        <v>58.326663</v>
+        <v>64.215407</v>
       </c>
       <c r="T4">
-        <v>57.11264100000001</v>
+        <v>63.44743</v>
       </c>
       <c r="U4">
-        <v>55.957067</v>
+        <v>62.726906</v>
       </c>
       <c r="V4">
-        <v>54.781356</v>
+        <v>61.96232800000001</v>
       </c>
       <c r="W4">
-        <v>53.61359</v>
+        <v>61.187658</v>
       </c>
       <c r="X4">
-        <v>52.499493</v>
+        <v>60.46216399999999</v>
       </c>
       <c r="Y4">
-        <v>51.389377</v>
+        <v>59.73260000000001</v>
       </c>
       <c r="Z4">
-        <v>50.33511200000001</v>
+        <v>59.070939</v>
       </c>
       <c r="AA4">
-        <v>49.30437</v>
+        <v>58.417666</v>
       </c>
       <c r="AB4">
-        <v>48.307128</v>
+        <v>57.777888</v>
       </c>
       <c r="AC4">
-        <v>47.34781099999999</v>
+        <v>57.137316</v>
       </c>
       <c r="AD4">
-        <v>46.376828</v>
+        <v>56.50013000000001</v>
       </c>
       <c r="AE4">
-        <v>45.344521</v>
+        <v>55.76787199999998</v>
       </c>
       <c r="AF4">
-        <v>44.39265400000001</v>
+        <v>55.11679400000001</v>
       </c>
       <c r="AG4">
-        <v>43.484816</v>
+        <v>54.501566</v>
       </c>
       <c r="AH4">
-        <v>42.609355</v>
+        <v>53.923367</v>
       </c>
       <c r="AI4">
-        <v>41.70768</v>
+        <v>53.29372499999999</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -5711,94 +5280,94 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5">
-        <v>2.306387</v>
+        <v>2.335406</v>
       </c>
       <c r="K5">
-        <v>2.230582</v>
+        <v>2.286017</v>
       </c>
       <c r="L5">
-        <v>2.179228</v>
+        <v>2.260554</v>
       </c>
       <c r="M5">
-        <v>2.134421</v>
+        <v>2.241388</v>
       </c>
       <c r="N5">
-        <v>2.079056</v>
+        <v>2.209651</v>
       </c>
       <c r="O5">
-        <v>2.031777</v>
+        <v>2.185333</v>
       </c>
       <c r="P5">
-        <v>1.98288</v>
+        <v>2.157597</v>
       </c>
       <c r="Q5">
-        <v>1.936306</v>
+        <v>2.131338</v>
       </c>
       <c r="R5">
-        <v>1.891199</v>
+        <v>2.105844</v>
       </c>
       <c r="S5">
-        <v>1.842616</v>
+        <v>2.074593</v>
       </c>
       <c r="T5">
-        <v>1.794979</v>
+        <v>2.04335</v>
       </c>
       <c r="U5">
-        <v>1.752186</v>
+        <v>2.01709</v>
       </c>
       <c r="V5">
-        <v>1.707783</v>
+        <v>1.987511</v>
       </c>
       <c r="W5">
-        <v>1.66103</v>
+        <v>1.953994</v>
       </c>
       <c r="X5">
-        <v>1.620171</v>
+        <v>1.926961</v>
       </c>
       <c r="Y5">
-        <v>1.580741</v>
+        <v>1.901529</v>
       </c>
       <c r="Z5">
-        <v>1.546459</v>
+        <v>1.882977</v>
       </c>
       <c r="AA5">
-        <v>1.507861</v>
+        <v>1.857008</v>
       </c>
       <c r="AB5">
-        <v>1.474225</v>
+        <v>1.837436</v>
       </c>
       <c r="AC5">
-        <v>1.440098</v>
+        <v>1.815801</v>
       </c>
       <c r="AD5">
-        <v>1.406706</v>
+        <v>1.795645</v>
       </c>
       <c r="AE5">
-        <v>1.35136</v>
+        <v>1.747811</v>
       </c>
       <c r="AF5">
-        <v>1.307907</v>
+        <v>1.715235</v>
       </c>
       <c r="AG5">
-        <v>1.275994</v>
+        <v>1.696967</v>
       </c>
       <c r="AH5">
-        <v>1.244707</v>
+        <v>1.675559</v>
       </c>
       <c r="AI5">
-        <v>1.211896</v>
+        <v>1.650485</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -5806,94 +5375,94 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>1.463928</v>
+        <v>1.488803</v>
       </c>
       <c r="K6">
-        <v>1.429091</v>
+        <v>1.4777</v>
       </c>
       <c r="L6">
-        <v>1.39206</v>
+        <v>1.463481</v>
       </c>
       <c r="M6">
-        <v>1.347647</v>
+        <v>1.440316</v>
       </c>
       <c r="N6">
-        <v>1.280474</v>
+        <v>1.388928</v>
       </c>
       <c r="O6">
-        <v>1.23458</v>
+        <v>1.359961</v>
       </c>
       <c r="P6">
-        <v>1.191231</v>
+        <v>1.332102</v>
       </c>
       <c r="Q6">
-        <v>1.159251</v>
+        <v>1.317688</v>
       </c>
       <c r="R6">
-        <v>1.121082</v>
+        <v>1.293971</v>
       </c>
       <c r="S6">
-        <v>1.095349</v>
+        <v>1.286852</v>
       </c>
       <c r="T6">
-        <v>1.068621</v>
+        <v>1.27826</v>
       </c>
       <c r="U6">
-        <v>1.036372</v>
+        <v>1.260232</v>
       </c>
       <c r="V6">
-        <v>0.9982210000000001</v>
+        <v>1.23039</v>
       </c>
       <c r="W6">
-        <v>0.9527760000000001</v>
+        <v>1.184504</v>
       </c>
       <c r="X6">
-        <v>0.9249060000000001</v>
+        <v>1.167666</v>
       </c>
       <c r="Y6">
-        <v>0.89694</v>
+        <v>1.150121</v>
       </c>
       <c r="Z6">
-        <v>0.872605</v>
+        <v>1.139786</v>
       </c>
       <c r="AA6">
-        <v>0.8487479999999998</v>
+        <v>1.129906</v>
       </c>
       <c r="AB6">
-        <v>0.8257840000000001</v>
+        <v>1.120687</v>
       </c>
       <c r="AC6">
-        <v>0.8040589999999999</v>
+        <v>1.11338</v>
       </c>
       <c r="AD6">
-        <v>0.7812750000000002</v>
+        <v>1.10285</v>
       </c>
       <c r="AE6">
-        <v>0.758589</v>
+        <v>1.091059</v>
       </c>
       <c r="AF6">
-        <v>0.7371300000000001</v>
+        <v>1.084083</v>
       </c>
       <c r="AG6">
-        <v>0.7155450000000001</v>
+        <v>1.07613</v>
       </c>
       <c r="AH6">
-        <v>0.693973</v>
+        <v>1.066541</v>
       </c>
       <c r="AI6">
-        <v>0.6722549999999998</v>
+        <v>1.057184</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -5901,94 +5470,94 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>3.786928</v>
+        <v>3.823231</v>
       </c>
       <c r="K7">
-        <v>3.765168</v>
+        <v>3.837133</v>
       </c>
       <c r="L7">
-        <v>3.716507</v>
+        <v>3.823597</v>
       </c>
       <c r="M7">
-        <v>3.668049</v>
+        <v>3.810289</v>
       </c>
       <c r="N7">
-        <v>3.607787999999999</v>
+        <v>3.783744</v>
       </c>
       <c r="O7">
-        <v>3.534251</v>
+        <v>3.741546</v>
       </c>
       <c r="P7">
-        <v>3.455029</v>
+        <v>3.690668</v>
       </c>
       <c r="Q7">
-        <v>3.384975</v>
+        <v>3.648927</v>
       </c>
       <c r="R7">
-        <v>3.323504</v>
+        <v>3.615001</v>
       </c>
       <c r="S7">
-        <v>3.260366</v>
+        <v>3.577799</v>
       </c>
       <c r="T7">
-        <v>3.19465</v>
+        <v>3.536826</v>
       </c>
       <c r="U7">
-        <v>3.134031</v>
+        <v>3.500478</v>
       </c>
       <c r="V7">
-        <v>3.074168000000001</v>
+        <v>3.464191</v>
       </c>
       <c r="W7">
-        <v>3.011643</v>
+        <v>3.423732</v>
       </c>
       <c r="X7">
-        <v>2.9545</v>
+        <v>3.388955</v>
       </c>
       <c r="Y7">
-        <v>2.894016</v>
+        <v>3.349609</v>
       </c>
       <c r="Z7">
-        <v>2.834433</v>
+        <v>3.311197</v>
       </c>
       <c r="AA7">
-        <v>2.778238</v>
+        <v>3.275662</v>
       </c>
       <c r="AB7">
-        <v>2.723936</v>
+        <v>3.24251</v>
       </c>
       <c r="AC7">
-        <v>2.670424</v>
+        <v>3.208551</v>
       </c>
       <c r="AD7">
-        <v>2.614861</v>
+        <v>3.172107</v>
       </c>
       <c r="AE7">
-        <v>2.514272999999999</v>
+        <v>3.085429</v>
       </c>
       <c r="AF7">
-        <v>2.432863</v>
+        <v>3.017581</v>
       </c>
       <c r="AG7">
-        <v>2.372113</v>
+        <v>2.972035</v>
       </c>
       <c r="AH7">
-        <v>2.323271</v>
+        <v>2.939189</v>
       </c>
       <c r="AI7">
-        <v>2.275617</v>
+        <v>2.907202</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -5996,94 +5565,94 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>1.157309</v>
+        <v>1.184285</v>
       </c>
       <c r="K8">
-        <v>1.098036</v>
+        <v>1.149535</v>
       </c>
       <c r="L8">
-        <v>1.018111</v>
+        <v>1.089893</v>
       </c>
       <c r="M8">
-        <v>0.938401</v>
+        <v>1.026715</v>
       </c>
       <c r="N8">
-        <v>0.9045860000000001</v>
+        <v>1.012936</v>
       </c>
       <c r="O8">
+        <v>0.9871779999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.97739</v>
+      </c>
+      <c r="Q8">
+        <v>0.969103</v>
+      </c>
+      <c r="R8">
+        <v>0.962983</v>
+      </c>
+      <c r="S8">
+        <v>0.951495</v>
+      </c>
+      <c r="T8">
+        <v>0.939833</v>
+      </c>
+      <c r="U8">
+        <v>0.9294480000000001</v>
+      </c>
+      <c r="V8">
+        <v>0.917114</v>
+      </c>
+      <c r="W8">
+        <v>0.9176500000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.905793</v>
+      </c>
+      <c r="Y8">
+        <v>0.898415</v>
+      </c>
+      <c r="Z8">
+        <v>0.888719</v>
+      </c>
+      <c r="AA8">
+        <v>0.8789150000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0.870491</v>
+      </c>
+      <c r="AC8">
         <v>0.8618589999999999</v>
       </c>
-      <c r="P8">
-        <v>0.8335429999999999</v>
-      </c>
-      <c r="Q8">
-        <v>0.806872</v>
-      </c>
-      <c r="R8">
-        <v>0.78205</v>
-      </c>
-      <c r="S8">
-        <v>0.7539279999999999</v>
-      </c>
-      <c r="T8">
-        <v>0.726189</v>
-      </c>
-      <c r="U8">
-        <v>0.699775</v>
-      </c>
-      <c r="V8">
-        <v>0.672586</v>
-      </c>
-      <c r="W8">
-        <v>0.6532950000000002</v>
-      </c>
-      <c r="X8">
-        <v>0.626942</v>
-      </c>
-      <c r="Y8">
-        <v>0.603029</v>
-      </c>
-      <c r="Z8">
-        <v>0.577993</v>
-      </c>
-      <c r="AA8">
-        <v>0.5533970000000001</v>
-      </c>
-      <c r="AB8">
-        <v>0.529961</v>
-      </c>
-      <c r="AC8">
-        <v>0.5069059999999999</v>
-      </c>
       <c r="AD8">
-        <v>0.4840469999999999</v>
+        <v>0.8533329999999999</v>
       </c>
       <c r="AE8">
-        <v>0.462238</v>
+        <v>0.847214</v>
       </c>
       <c r="AF8">
-        <v>0.440338</v>
+        <v>0.840275</v>
       </c>
       <c r="AG8">
-        <v>0.418615</v>
+        <v>0.8330759999999999</v>
       </c>
       <c r="AH8">
-        <v>0.3970590000000001</v>
+        <v>0.82559</v>
       </c>
       <c r="AI8">
-        <v>0.375426</v>
+        <v>0.8167800000000001</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -6091,94 +5660,94 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>8.88841</v>
+        <v>8.992986</v>
       </c>
       <c r="K9">
-        <v>8.612956000000001</v>
+        <v>8.811674</v>
       </c>
       <c r="L9">
-        <v>8.345279999999999</v>
+        <v>8.630044999999999</v>
       </c>
       <c r="M9">
-        <v>8.060146999999999</v>
+        <v>8.422066999999998</v>
       </c>
       <c r="N9">
-        <v>7.782940000000001</v>
+        <v>8.213907000000001</v>
       </c>
       <c r="O9">
-        <v>7.592289999999999</v>
+        <v>8.09442</v>
       </c>
       <c r="P9">
-        <v>7.45836</v>
+        <v>8.033282</v>
       </c>
       <c r="Q9">
-        <v>7.312165999999999</v>
+        <v>7.955188</v>
       </c>
       <c r="R9">
-        <v>7.209467</v>
+        <v>7.926189</v>
       </c>
       <c r="S9">
-        <v>7.068678</v>
+        <v>7.848459</v>
       </c>
       <c r="T9">
-        <v>6.93856</v>
+        <v>7.781808</v>
       </c>
       <c r="U9">
-        <v>6.822610000000001</v>
+        <v>7.729916000000001</v>
       </c>
       <c r="V9">
-        <v>6.707343000000001</v>
+        <v>7.677122000000001</v>
       </c>
       <c r="W9">
-        <v>6.523158</v>
+        <v>7.530398</v>
       </c>
       <c r="X9">
-        <v>6.389551</v>
+        <v>7.448099</v>
       </c>
       <c r="Y9">
-        <v>6.256335</v>
+        <v>7.364417</v>
       </c>
       <c r="Z9">
-        <v>6.137368</v>
+        <v>7.299602</v>
       </c>
       <c r="AA9">
-        <v>6.024632</v>
+        <v>7.240166</v>
       </c>
       <c r="AB9">
-        <v>5.908583999999999</v>
+        <v>7.171301999999999</v>
       </c>
       <c r="AC9">
-        <v>5.805768</v>
+        <v>7.119052</v>
       </c>
       <c r="AD9">
-        <v>5.687111000000002</v>
+        <v>7.040871000000001</v>
       </c>
       <c r="AE9">
-        <v>5.573593000000001</v>
+        <v>6.9683</v>
       </c>
       <c r="AF9">
-        <v>5.473113</v>
+        <v>6.914511999999999</v>
       </c>
       <c r="AG9">
-        <v>5.372393</v>
+        <v>6.856825</v>
       </c>
       <c r="AH9">
-        <v>5.271851</v>
+        <v>6.797272</v>
       </c>
       <c r="AI9">
-        <v>5.16204</v>
+        <v>6.717793</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -6186,94 +5755,94 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10">
-        <v>3.758502</v>
+        <v>3.817986</v>
       </c>
       <c r="K10">
-        <v>3.575553</v>
+        <v>3.685934</v>
       </c>
       <c r="L10">
-        <v>3.391932</v>
+        <v>3.543525</v>
       </c>
       <c r="M10">
-        <v>3.21116</v>
+        <v>3.396389</v>
       </c>
       <c r="N10">
-        <v>3.075771</v>
+        <v>3.290954</v>
       </c>
       <c r="O10">
-        <v>2.930776</v>
+        <v>3.167436</v>
       </c>
       <c r="P10">
-        <v>2.835406</v>
+        <v>3.097278</v>
       </c>
       <c r="Q10">
-        <v>2.771549</v>
+        <v>3.064192</v>
       </c>
       <c r="R10">
-        <v>2.718716</v>
+        <v>3.043088</v>
       </c>
       <c r="S10">
-        <v>2.653757</v>
+        <v>3.005367</v>
       </c>
       <c r="T10">
-        <v>2.598737</v>
+        <v>2.979247</v>
       </c>
       <c r="U10">
-        <v>2.552737</v>
+        <v>2.966159</v>
       </c>
       <c r="V10">
-        <v>2.507879</v>
+        <v>2.955692</v>
       </c>
       <c r="W10">
-        <v>2.459207</v>
+        <v>2.932361</v>
       </c>
       <c r="X10">
-        <v>2.399095</v>
+        <v>2.893008</v>
       </c>
       <c r="Y10">
-        <v>2.347209</v>
+        <v>2.867548</v>
       </c>
       <c r="Z10">
-        <v>2.294028</v>
+        <v>2.839419</v>
       </c>
       <c r="AA10">
-        <v>2.243224</v>
+        <v>2.813955</v>
       </c>
       <c r="AB10">
-        <v>2.192996</v>
+        <v>2.785619</v>
       </c>
       <c r="AC10">
-        <v>2.147372</v>
+        <v>2.768032</v>
       </c>
       <c r="AD10">
-        <v>2.102868</v>
+        <v>2.751452</v>
       </c>
       <c r="AE10">
-        <v>2.054676</v>
+        <v>2.726906</v>
       </c>
       <c r="AF10">
-        <v>2.004989</v>
+        <v>2.698203</v>
       </c>
       <c r="AG10">
-        <v>1.961495</v>
+        <v>2.679413</v>
       </c>
       <c r="AH10">
-        <v>1.916483</v>
+        <v>2.661271</v>
       </c>
       <c r="AI10">
-        <v>1.874778</v>
+        <v>2.658267</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -6281,94 +5850,94 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11">
-        <v>20.831723</v>
+        <v>21.026548</v>
       </c>
       <c r="K11">
-        <v>20.570367</v>
+        <v>20.951058</v>
       </c>
       <c r="L11">
-        <v>20.250824</v>
+        <v>20.809525</v>
       </c>
       <c r="M11">
-        <v>19.881692</v>
+        <v>20.609687</v>
       </c>
       <c r="N11">
-        <v>19.426851</v>
+        <v>20.311319</v>
       </c>
       <c r="O11">
-        <v>18.930029</v>
+        <v>19.954171</v>
       </c>
       <c r="P11">
-        <v>18.536699</v>
+        <v>19.699516</v>
       </c>
       <c r="Q11">
-        <v>18.181629</v>
+        <v>19.481054</v>
       </c>
       <c r="R11">
-        <v>17.806477</v>
+        <v>19.232186</v>
       </c>
       <c r="S11">
-        <v>17.401349</v>
+        <v>18.937095</v>
       </c>
       <c r="T11">
-        <v>17.028689</v>
+        <v>18.673192</v>
       </c>
       <c r="U11">
-        <v>16.711646</v>
+        <v>18.471642</v>
       </c>
       <c r="V11">
-        <v>16.38012</v>
+        <v>18.247625</v>
       </c>
       <c r="W11">
-        <v>16.083467</v>
+        <v>18.069025</v>
       </c>
       <c r="X11">
-        <v>15.762229</v>
+        <v>17.851572</v>
       </c>
       <c r="Y11">
-        <v>15.455847</v>
+        <v>17.651824</v>
       </c>
       <c r="Z11">
-        <v>15.147392</v>
+        <v>17.445342</v>
       </c>
       <c r="AA11">
-        <v>14.845268</v>
+        <v>17.238612</v>
       </c>
       <c r="AB11">
-        <v>14.562194</v>
+        <v>17.049284</v>
       </c>
       <c r="AC11">
-        <v>14.296396</v>
+        <v>16.875177</v>
       </c>
       <c r="AD11">
-        <v>14.010508</v>
+        <v>16.671026</v>
       </c>
       <c r="AE11">
-        <v>13.731883</v>
+        <v>16.471391</v>
       </c>
       <c r="AF11">
-        <v>13.467122</v>
+        <v>16.282997</v>
       </c>
       <c r="AG11">
-        <v>13.199909</v>
+        <v>16.077533</v>
       </c>
       <c r="AH11">
-        <v>12.953224</v>
+        <v>15.90623</v>
       </c>
       <c r="AI11">
-        <v>12.68657</v>
+        <v>15.697817</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -6376,94 +5945,94 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
-        <v>5.224815</v>
+        <v>5.277187000000001</v>
       </c>
       <c r="K12">
-        <v>4.958449</v>
+        <v>5.053934</v>
       </c>
       <c r="L12">
-        <v>4.771385</v>
+        <v>4.90604</v>
       </c>
       <c r="M12">
-        <v>4.584153000000001</v>
+        <v>4.75267</v>
       </c>
       <c r="N12">
-        <v>4.457294</v>
+        <v>4.660514</v>
       </c>
       <c r="O12">
-        <v>4.341918</v>
+        <v>4.577679</v>
       </c>
       <c r="P12">
-        <v>4.221219</v>
+        <v>4.485591</v>
       </c>
       <c r="Q12">
-        <v>4.10757</v>
+        <v>4.39858</v>
       </c>
       <c r="R12">
-        <v>4.040091</v>
+        <v>4.364842</v>
       </c>
       <c r="S12">
-        <v>3.980257</v>
+        <v>4.339416</v>
       </c>
       <c r="T12">
-        <v>3.907663</v>
+        <v>4.297606</v>
       </c>
       <c r="U12">
-        <v>3.822467000000001</v>
+        <v>4.238279</v>
       </c>
       <c r="V12">
-        <v>3.691435</v>
+        <v>4.115233</v>
       </c>
       <c r="W12">
-        <v>3.630546</v>
+        <v>4.08429</v>
       </c>
       <c r="X12">
-        <v>3.565248</v>
+        <v>4.046218</v>
       </c>
       <c r="Y12">
-        <v>3.495047</v>
+        <v>4.001428000000001</v>
       </c>
       <c r="Z12">
-        <v>3.440223</v>
+        <v>3.979289</v>
       </c>
       <c r="AA12">
-        <v>3.372688999999999</v>
+        <v>3.93669</v>
       </c>
       <c r="AB12">
-        <v>3.3046</v>
+        <v>3.890011</v>
       </c>
       <c r="AC12">
-        <v>3.241691</v>
+        <v>3.850435</v>
       </c>
       <c r="AD12">
-        <v>3.181193</v>
+        <v>3.814024</v>
       </c>
       <c r="AE12">
-        <v>3.113607</v>
+        <v>3.764568</v>
       </c>
       <c r="AF12">
-        <v>3.05921</v>
+        <v>3.737761</v>
       </c>
       <c r="AG12">
-        <v>2.995879</v>
+        <v>3.692593</v>
       </c>
       <c r="AH12">
-        <v>2.937637</v>
+        <v>3.654846</v>
       </c>
       <c r="AI12">
-        <v>2.882463</v>
+        <v>3.62292</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -6471,94 +6040,94 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13">
-        <v>1.076797</v>
+        <v>1.090481</v>
       </c>
       <c r="K13">
-        <v>1.04507</v>
+        <v>1.07128</v>
       </c>
       <c r="L13">
-        <v>0.9726629999999999</v>
+        <v>1.006975</v>
       </c>
       <c r="M13">
-        <v>0.9186979999999999</v>
+        <v>0.959795</v>
       </c>
       <c r="N13">
-        <v>0.8907729999999999</v>
+        <v>0.9400839999999999</v>
       </c>
       <c r="O13">
-        <v>0.873387</v>
+        <v>0.931934</v>
       </c>
       <c r="P13">
-        <v>0.846187</v>
+        <v>0.911432</v>
       </c>
       <c r="Q13">
-        <v>0.821063</v>
+        <v>0.89255</v>
       </c>
       <c r="R13">
-        <v>0.792343</v>
+        <v>0.86793</v>
       </c>
       <c r="S13">
-        <v>0.776273</v>
+        <v>0.859237</v>
       </c>
       <c r="T13">
-        <v>0.7612850000000001</v>
+        <v>0.8518410000000001</v>
       </c>
       <c r="U13">
-        <v>0.745459</v>
+        <v>0.842876</v>
       </c>
       <c r="V13">
-        <v>0.731429</v>
+        <v>0.836256</v>
       </c>
       <c r="W13">
-        <v>0.717231</v>
+        <v>0.829592</v>
       </c>
       <c r="X13">
-        <v>0.7022630000000001</v>
+        <v>0.8211550000000001</v>
       </c>
       <c r="Y13">
-        <v>0.6895659999999999</v>
+        <v>0.816943</v>
       </c>
       <c r="Z13">
-        <v>0.676191</v>
+        <v>0.811731</v>
       </c>
       <c r="AA13">
-        <v>0.6619090000000001</v>
+        <v>0.804617</v>
       </c>
       <c r="AB13">
-        <v>0.6502209999999999</v>
+        <v>0.802214</v>
       </c>
       <c r="AC13">
-        <v>0.6372030000000001</v>
+        <v>0.796548</v>
       </c>
       <c r="AD13">
-        <v>0.624246</v>
+        <v>0.791318</v>
       </c>
       <c r="AE13">
-        <v>0.6156470000000001</v>
+        <v>0.797965</v>
       </c>
       <c r="AF13">
-        <v>0.601826</v>
+        <v>0.7913439999999999</v>
       </c>
       <c r="AG13">
-        <v>0.588098</v>
+        <v>0.784535</v>
       </c>
       <c r="AH13">
-        <v>0.5770169999999999</v>
+        <v>0.786519</v>
       </c>
       <c r="AI13">
-        <v>0.562948</v>
+        <v>0.779083</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -6566,94 +6135,94 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14">
-        <v>13.794644</v>
+        <v>13.97816</v>
       </c>
       <c r="K14">
-        <v>13.027509</v>
+        <v>13.358674</v>
       </c>
       <c r="L14">
-        <v>12.223051</v>
+        <v>12.666288</v>
       </c>
       <c r="M14">
-        <v>11.656697</v>
+        <v>12.201744</v>
       </c>
       <c r="N14">
-        <v>11.196987</v>
+        <v>11.836356</v>
       </c>
       <c r="O14">
-        <v>10.842186</v>
+        <v>11.574492</v>
       </c>
       <c r="P14">
-        <v>10.532454</v>
+        <v>11.350335</v>
       </c>
       <c r="Q14">
-        <v>10.247378</v>
+        <v>11.148432</v>
       </c>
       <c r="R14">
-        <v>10.018202</v>
+        <v>11.005811</v>
       </c>
       <c r="S14">
-        <v>9.737506999999999</v>
+        <v>10.787923</v>
       </c>
       <c r="T14">
-        <v>9.512381000000001</v>
+        <v>10.635619</v>
       </c>
       <c r="U14">
-        <v>9.290998</v>
+        <v>10.481047</v>
       </c>
       <c r="V14">
-        <v>9.092325000000001</v>
+        <v>10.357737</v>
       </c>
       <c r="W14">
-        <v>8.880293</v>
+        <v>10.213355</v>
       </c>
       <c r="X14">
-        <v>8.690271000000001</v>
+        <v>10.09125</v>
       </c>
       <c r="Y14">
-        <v>8.475251999999999</v>
+        <v>9.929190999999999</v>
       </c>
       <c r="Z14">
-        <v>8.27886</v>
+        <v>9.789012</v>
       </c>
       <c r="AA14">
-        <v>8.099443999999998</v>
+        <v>9.673715999999999</v>
       </c>
       <c r="AB14">
-        <v>7.921942</v>
+        <v>9.553724000000001</v>
       </c>
       <c r="AC14">
-        <v>7.727728999999998</v>
+        <v>9.375696999999999</v>
       </c>
       <c r="AD14">
-        <v>7.564236999999999</v>
+        <v>9.266392</v>
       </c>
       <c r="AE14">
-        <v>7.398019</v>
+        <v>9.139329</v>
       </c>
       <c r="AF14">
-        <v>7.235823</v>
+        <v>9.009437999999999</v>
       </c>
       <c r="AG14">
-        <v>7.081432000000001</v>
+        <v>8.901845000000002</v>
       </c>
       <c r="AH14">
-        <v>6.920985000000001</v>
+        <v>8.776936000000001</v>
       </c>
       <c r="AI14">
-        <v>6.766311999999999</v>
+        <v>8.656312</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -6661,94 +6230,94 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15">
-        <v>11.23566</v>
+        <v>11.332947</v>
       </c>
       <c r="K15">
-        <v>11.117921</v>
+        <v>11.307859</v>
       </c>
       <c r="L15">
-        <v>10.973726</v>
+        <v>11.252214</v>
       </c>
       <c r="M15">
-        <v>10.839415</v>
+        <v>11.203764</v>
       </c>
       <c r="N15">
-        <v>10.662229</v>
+        <v>11.108171</v>
       </c>
       <c r="O15">
-        <v>10.488093</v>
+        <v>11.011639</v>
       </c>
       <c r="P15">
-        <v>10.304691</v>
+        <v>10.900781</v>
       </c>
       <c r="Q15">
-        <v>10.117957</v>
+        <v>10.782493</v>
       </c>
       <c r="R15">
-        <v>9.931524000000001</v>
+        <v>10.660664</v>
       </c>
       <c r="S15">
-        <v>9.756583000000001</v>
+        <v>10.547171</v>
       </c>
       <c r="T15">
-        <v>9.580887000000001</v>
+        <v>10.429848</v>
       </c>
       <c r="U15">
-        <v>9.388786</v>
+        <v>10.289739</v>
       </c>
       <c r="V15">
-        <v>9.218067000000001</v>
+        <v>10.173457</v>
       </c>
       <c r="W15">
-        <v>9.040944</v>
+        <v>10.048757</v>
       </c>
       <c r="X15">
-        <v>8.864317</v>
+        <v>9.921486999999999</v>
       </c>
       <c r="Y15">
-        <v>8.695395</v>
+        <v>9.801575</v>
       </c>
       <c r="Z15">
-        <v>8.52956</v>
+        <v>9.683865000000001</v>
       </c>
       <c r="AA15">
-        <v>8.368960000000001</v>
+        <v>9.568419</v>
       </c>
       <c r="AB15">
-        <v>8.212684999999999</v>
+        <v>9.454609999999999</v>
       </c>
       <c r="AC15">
-        <v>8.070164999999999</v>
+        <v>9.352784</v>
       </c>
       <c r="AD15">
-        <v>7.919775999999999</v>
+        <v>9.241111999999999</v>
       </c>
       <c r="AE15">
-        <v>7.770636000000001</v>
+        <v>9.1279</v>
       </c>
       <c r="AF15">
-        <v>7.632333000000001</v>
+        <v>9.025365000000001</v>
       </c>
       <c r="AG15">
-        <v>7.503343</v>
+        <v>8.930614</v>
       </c>
       <c r="AH15">
-        <v>7.373148</v>
+        <v>8.833413999999999</v>
       </c>
       <c r="AI15">
-        <v>7.237375</v>
+        <v>8.729882</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -6756,94 +6325,94 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16">
-        <v>-0.8229169999999999</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>-1.560096</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-2.21737</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-2.824344</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-3.391815</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>-3.924643</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>-4.438273000000001</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-4.942829</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>-5.443854</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-5.888744</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>-6.334789</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>-6.769839</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>-7.180972000000001</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-7.574067999999998</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-7.962671</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>-8.343223</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-8.735826999999999</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-9.113296</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>-9.47076</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>-9.789505</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>-10.123302</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>-10.423351</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>-10.72414</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>-11.01675</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>-11.314012</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>-11.586045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -6851,16 +6420,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>35.769395</v>
@@ -6946,16 +6515,16 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>0.8066230000000002</v>
@@ -7041,16 +6610,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>37.772002</v>
@@ -7136,16 +6705,16 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -7231,16 +6800,16 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -7326,94 +6895,94 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22">
-        <v>71.92887899999999</v>
+        <v>72.65109099999999</v>
       </c>
       <c r="K22">
-        <v>70.15376400000002</v>
+        <v>71.53632000000002</v>
       </c>
       <c r="L22">
-        <v>68.23008899999999</v>
+        <v>70.21524599999999</v>
       </c>
       <c r="M22">
-        <v>66.42174</v>
+        <v>68.96942799999999</v>
       </c>
       <c r="N22">
-        <v>64.67369100000001</v>
+        <v>67.74587600000001</v>
       </c>
       <c r="O22">
-        <v>63.086883</v>
+        <v>66.654088</v>
       </c>
       <c r="P22">
-        <v>61.731604</v>
+        <v>65.772813</v>
       </c>
       <c r="Q22">
-        <v>60.473832</v>
+        <v>64.976946</v>
       </c>
       <c r="R22">
-        <v>59.32040499999999</v>
+        <v>64.27583199999999</v>
       </c>
       <c r="S22">
-        <v>58.06285099999999</v>
+        <v>63.418909</v>
       </c>
       <c r="T22">
-        <v>56.89263899999999</v>
+        <v>62.64327499999999</v>
       </c>
       <c r="U22">
-        <v>55.782778</v>
+        <v>61.920231</v>
       </c>
       <c r="V22">
-        <v>54.67908300000001</v>
+        <v>61.184577</v>
       </c>
       <c r="W22">
-        <v>53.55643199999999</v>
+        <v>60.40780099999999</v>
       </c>
       <c r="X22">
-        <v>52.482804</v>
+        <v>59.6737</v>
       </c>
       <c r="Y22">
-        <v>51.41981</v>
+        <v>58.941959</v>
       </c>
       <c r="Z22">
-        <v>50.40570400000001</v>
+        <v>58.26302700000001</v>
       </c>
       <c r="AA22">
-        <v>49.42513100000001</v>
+        <v>57.604555</v>
       </c>
       <c r="AB22">
-        <v>48.473951</v>
+        <v>56.959718</v>
       </c>
       <c r="AC22">
-        <v>47.556668</v>
+        <v>56.329489</v>
       </c>
       <c r="AD22">
-        <v>46.62896600000001</v>
+        <v>55.684929</v>
       </c>
       <c r="AE22">
-        <v>45.628021</v>
+        <v>54.936528</v>
       </c>
       <c r="AF22">
-        <v>44.71697199999999</v>
+        <v>54.28130399999999</v>
       </c>
       <c r="AG22">
-        <v>43.855383</v>
+        <v>53.66707</v>
       </c>
       <c r="AH22">
-        <v>43.03310500000001</v>
+        <v>53.08807300000001</v>
       </c>
       <c r="AI22">
-        <v>42.17953799999999</v>
+        <v>52.457088</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -7421,94 +6990,94 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23">
-        <v>1.596223999999999</v>
+        <v>1.696928999999999</v>
       </c>
       <c r="K23">
-        <v>1.276938</v>
+        <v>1.454478</v>
       </c>
       <c r="L23">
-        <v>1.004678</v>
+        <v>1.236891</v>
       </c>
       <c r="M23">
-        <v>0.81874</v>
+        <v>1.095396</v>
       </c>
       <c r="N23">
-        <v>0.6910579999999995</v>
+        <v>1.010688</v>
       </c>
       <c r="O23">
-        <v>0.5742630000000004</v>
+        <v>0.9317010000000003</v>
       </c>
       <c r="P23">
-        <v>0.466095</v>
+        <v>0.863159</v>
       </c>
       <c r="Q23">
-        <v>0.3728840000000005</v>
+        <v>0.8125990000000005</v>
       </c>
       <c r="R23">
-        <v>0.3142499999999999</v>
+        <v>0.8026769999999999</v>
       </c>
       <c r="S23">
-        <v>0.2638120000000002</v>
+        <v>0.7964980000000002</v>
       </c>
       <c r="T23">
-        <v>0.2200019999999997</v>
+        <v>0.8041549999999997</v>
       </c>
       <c r="U23">
-        <v>0.1742890000000002</v>
+        <v>0.8066750000000003</v>
       </c>
       <c r="V23">
-        <v>0.1022730000000004</v>
+        <v>0.7777510000000003</v>
       </c>
       <c r="W23">
-        <v>0.05715799999999993</v>
+        <v>0.779857</v>
       </c>
       <c r="X23">
-        <v>0.01668900000000051</v>
+        <v>0.7884640000000005</v>
       </c>
       <c r="Y23">
-        <v>-0.03043300000000015</v>
+        <v>0.7906409999999999</v>
       </c>
       <c r="Z23">
-        <v>-0.07059199999999999</v>
+        <v>0.807912</v>
       </c>
       <c r="AA23">
-        <v>-0.120761</v>
+        <v>0.8131109999999999</v>
       </c>
       <c r="AB23">
-        <v>-0.1668230000000002</v>
+        <v>0.8181699999999998</v>
       </c>
       <c r="AC23">
-        <v>-0.2088570000000001</v>
+        <v>0.8078269999999999</v>
       </c>
       <c r="AD23">
-        <v>-0.252138</v>
+        <v>0.8152010000000001</v>
       </c>
       <c r="AE23">
-        <v>-0.2834999999999999</v>
+        <v>0.8313440000000001</v>
       </c>
       <c r="AF23">
-        <v>-0.3243180000000003</v>
+        <v>0.8354899999999998</v>
       </c>
       <c r="AG23">
-        <v>-0.3705670000000003</v>
+        <v>0.8344959999999997</v>
       </c>
       <c r="AH23">
-        <v>-0.4237500000000003</v>
+        <v>0.8352939999999998</v>
       </c>
       <c r="AI23">
-        <v>-0.4718579999999994</v>
+        <v>0.8366370000000005</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -7516,16 +7085,16 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -7611,16 +7180,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -7706,16 +7275,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -7801,16 +7370,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -7896,16 +7465,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -7991,16 +7560,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -8086,16 +7655,16 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -8181,16 +7750,16 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31">
         <v>0.2649</v>
@@ -8288,16 +7857,16 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32">
         <v>0.2649</v>
@@ -8395,16 +7964,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <v>0.2649</v>
@@ -8502,16 +8071,16 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34">
         <v>0.2649</v>
@@ -8609,16 +8178,16 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>20.5893</v>
@@ -8716,16 +8285,16 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>20.5893</v>
@@ -8823,16 +8392,16 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37">
         <v>20.5893</v>
@@ -8930,16 +8499,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38">
         <v>20.5893</v>
@@ -9037,16 +8606,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <v>2.1032</v>
@@ -9144,16 +8713,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40">
         <v>2.1032</v>
@@ -9251,16 +8820,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41">
         <v>2.1032</v>
@@ -9358,16 +8927,16 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42">
         <v>2.1032</v>
@@ -9458,434 +9027,6 @@
       </c>
       <c r="AI42">
         <v>55.707221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43">
-        <v>999</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>999</v>
-      </c>
-      <c r="I43">
-        <v>999</v>
-      </c>
-      <c r="J43">
-        <v>1.345379874976294</v>
-      </c>
-      <c r="K43">
-        <v>2.540593724236029</v>
-      </c>
-      <c r="L43">
-        <v>3.598413754545598</v>
-      </c>
-      <c r="M43">
-        <v>4.575436641053129</v>
-      </c>
-      <c r="N43">
-        <v>5.49489324600721</v>
-      </c>
-      <c r="O43">
-        <v>6.351325471135017</v>
-      </c>
-      <c r="P43">
-        <v>7.173825692837827</v>
-      </c>
-      <c r="Q43">
-        <v>7.975961509254211</v>
-      </c>
-      <c r="R43">
-        <v>8.78769106226421</v>
-      </c>
-      <c r="S43">
-        <v>9.515320566301614</v>
-      </c>
-      <c r="T43">
-        <v>10.24628981415809</v>
-      </c>
-      <c r="U43">
-        <v>10.95095823479922</v>
-      </c>
-      <c r="V43">
-        <v>11.59777407059532</v>
-      </c>
-      <c r="W43">
-        <v>12.23810595439217</v>
-      </c>
-      <c r="X43">
-        <v>12.87691847640731</v>
-      </c>
-      <c r="Y43">
-        <v>13.49957155205969</v>
-      </c>
-      <c r="Z43">
-        <v>14.14820611162333</v>
-      </c>
-      <c r="AA43">
-        <v>14.76552657366356</v>
-      </c>
-      <c r="AB43">
-        <v>15.34698121896222</v>
-      </c>
-      <c r="AC43">
-        <v>15.8561503431666</v>
-      </c>
-      <c r="AD43">
-        <v>16.41235121488216</v>
-      </c>
-      <c r="AE43">
-        <v>16.91533854194804</v>
-      </c>
-      <c r="AF43">
-        <v>17.41885788706471</v>
-      </c>
-      <c r="AG43">
-        <v>17.90352570674829</v>
-      </c>
-      <c r="AH43">
-        <v>18.39315140508161</v>
-      </c>
-      <c r="AI43">
-        <v>18.85105115913482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44">
-        <v>999</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>999</v>
-      </c>
-      <c r="I44">
-        <v>999</v>
-      </c>
-      <c r="J44">
-        <v>2.168299522222379</v>
-      </c>
-      <c r="K44">
-        <v>4.100689753470416</v>
-      </c>
-      <c r="L44">
-        <v>5.815784946329839</v>
-      </c>
-      <c r="M44">
-        <v>7.399778716858663</v>
-      </c>
-      <c r="N44">
-        <v>8.886708851562037</v>
-      </c>
-      <c r="O44">
-        <v>10.27596943156682</v>
-      </c>
-      <c r="P44">
-        <v>11.61209912969571</v>
-      </c>
-      <c r="Q44">
-        <v>12.91879021934349</v>
-      </c>
-      <c r="R44">
-        <v>14.23154631291636</v>
-      </c>
-      <c r="S44">
-        <v>15.40406580673619</v>
-      </c>
-      <c r="T44">
-        <v>16.5810792082545</v>
-      </c>
-      <c r="U44">
-        <v>17.72079642498987</v>
-      </c>
-      <c r="V44">
-        <v>18.77874714893037</v>
-      </c>
-      <c r="W44">
-        <v>19.81217588190306</v>
-      </c>
-      <c r="X44">
-        <v>20.83958918753557</v>
-      </c>
-      <c r="Y44">
-        <v>21.8427927977781</v>
-      </c>
-      <c r="Z44">
-        <v>22.88403089063425</v>
-      </c>
-      <c r="AA44">
-        <v>23.87882228612748</v>
-      </c>
-      <c r="AB44">
-        <v>24.8177432484464</v>
-      </c>
-      <c r="AC44">
-        <v>25.64565792938321</v>
-      </c>
-      <c r="AD44">
-        <v>26.53565353516252</v>
-      </c>
-      <c r="AE44">
-        <v>27.33869120870074</v>
-      </c>
-      <c r="AF44">
-        <v>28.14299708843185</v>
-      </c>
-      <c r="AG44">
-        <v>28.92027471719199</v>
-      </c>
-      <c r="AH44">
-        <v>29.70716296598737</v>
-      </c>
-      <c r="AI44">
-        <v>30.43709567733014</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45">
-        <v>999</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>999</v>
-      </c>
-      <c r="I45">
-        <v>999</v>
-      </c>
-      <c r="J45">
-        <v>1.34538</v>
-      </c>
-      <c r="K45">
-        <v>2.540594</v>
-      </c>
-      <c r="L45">
-        <v>3.598414</v>
-      </c>
-      <c r="M45">
-        <v>4.575437</v>
-      </c>
-      <c r="N45">
-        <v>5.494893</v>
-      </c>
-      <c r="O45">
-        <v>6.351325</v>
-      </c>
-      <c r="P45">
-        <v>7.173826</v>
-      </c>
-      <c r="Q45">
-        <v>7.975962</v>
-      </c>
-      <c r="R45">
-        <v>8.787691000000001</v>
-      </c>
-      <c r="S45">
-        <v>9.515321</v>
-      </c>
-      <c r="T45">
-        <v>10.24629</v>
-      </c>
-      <c r="U45">
-        <v>10.950958</v>
-      </c>
-      <c r="V45">
-        <v>11.597774</v>
-      </c>
-      <c r="W45">
-        <v>12.238106</v>
-      </c>
-      <c r="X45">
-        <v>12.876918</v>
-      </c>
-      <c r="Y45">
-        <v>13.499572</v>
-      </c>
-      <c r="Z45">
-        <v>14.148206</v>
-      </c>
-      <c r="AA45">
-        <v>14.765527</v>
-      </c>
-      <c r="AB45">
-        <v>15.346981</v>
-      </c>
-      <c r="AC45">
-        <v>15.85615</v>
-      </c>
-      <c r="AD45">
-        <v>16.412351</v>
-      </c>
-      <c r="AE45">
-        <v>16.915339</v>
-      </c>
-      <c r="AF45">
-        <v>17.418858</v>
-      </c>
-      <c r="AG45">
-        <v>17.903526</v>
-      </c>
-      <c r="AH45">
-        <v>18.393151</v>
-      </c>
-      <c r="AI45">
-        <v>18.851051</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46">
-        <v>999</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>999</v>
-      </c>
-      <c r="I46">
-        <v>999</v>
-      </c>
-      <c r="J46">
-        <v>2.1683</v>
-      </c>
-      <c r="K46">
-        <v>4.10069</v>
-      </c>
-      <c r="L46">
-        <v>5.815785</v>
-      </c>
-      <c r="M46">
-        <v>7.399779</v>
-      </c>
-      <c r="N46">
-        <v>8.886709</v>
-      </c>
-      <c r="O46">
-        <v>10.275969</v>
-      </c>
-      <c r="P46">
-        <v>11.612099</v>
-      </c>
-      <c r="Q46">
-        <v>12.91879</v>
-      </c>
-      <c r="R46">
-        <v>14.231546</v>
-      </c>
-      <c r="S46">
-        <v>15.404066</v>
-      </c>
-      <c r="T46">
-        <v>16.581079</v>
-      </c>
-      <c r="U46">
-        <v>17.720796</v>
-      </c>
-      <c r="V46">
-        <v>18.778747</v>
-      </c>
-      <c r="W46">
-        <v>19.812176</v>
-      </c>
-      <c r="X46">
-        <v>20.839589</v>
-      </c>
-      <c r="Y46">
-        <v>21.842793</v>
-      </c>
-      <c r="Z46">
-        <v>22.884031</v>
-      </c>
-      <c r="AA46">
-        <v>23.878822</v>
-      </c>
-      <c r="AB46">
-        <v>24.817743</v>
-      </c>
-      <c r="AC46">
-        <v>25.645658</v>
-      </c>
-      <c r="AD46">
-        <v>26.535654</v>
-      </c>
-      <c r="AE46">
-        <v>27.338691</v>
-      </c>
-      <c r="AF46">
-        <v>28.142997</v>
-      </c>
-      <c r="AG46">
-        <v>28.920275</v>
-      </c>
-      <c r="AH46">
-        <v>29.707163</v>
-      </c>
-      <c r="AI46">
-        <v>30.437096</v>
       </c>
     </row>
   </sheetData>
@@ -9895,7 +9036,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9930,82 +9071,82 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -10013,85 +9154,85 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
-        <v>49.0164240344135</v>
+        <v>48.58343204363476</v>
       </c>
       <c r="K2">
-        <v>47.19108930588615</v>
+        <v>46.36587134861314</v>
       </c>
       <c r="L2">
-        <v>45.81837291696246</v>
+        <v>44.62608813650102</v>
       </c>
       <c r="M2">
-        <v>44.86003236287613</v>
+        <v>43.31450140965941</v>
       </c>
       <c r="N2">
-        <v>44.62408189310707</v>
+        <v>42.72077940683072</v>
       </c>
       <c r="O2">
-        <v>44.45677791039745</v>
+        <v>42.20460360112374</v>
       </c>
       <c r="P2">
-        <v>44.46674344182293</v>
+        <v>41.87198828704508</v>
       </c>
       <c r="Q2">
-        <v>44.45749610645687</v>
+        <v>41.53056165093086</v>
       </c>
       <c r="R2">
-        <v>44.80710125728955</v>
+        <v>41.52309138322784</v>
       </c>
       <c r="S2">
-        <v>44.97666670919578</v>
+        <v>41.35938418630406</v>
       </c>
       <c r="T2">
-        <v>44.98457651813803</v>
+        <v>41.05705334538068</v>
       </c>
       <c r="U2">
-        <v>44.94527103021953</v>
+        <v>40.70957160108625</v>
       </c>
       <c r="V2">
-        <v>45.00615627232415</v>
+        <v>40.45841409541703</v>
       </c>
       <c r="W2">
-        <v>45.20278478837456</v>
+        <v>40.33255899476061</v>
       </c>
       <c r="X2">
-        <v>45.08393232836678</v>
+        <v>39.92693700794298</v>
       </c>
       <c r="Y2">
-        <v>45.1780046464155</v>
+        <v>39.71192765755598</v>
       </c>
       <c r="Z2">
-        <v>45.28199057443035</v>
+        <v>39.50851260596519</v>
       </c>
       <c r="AA2">
-        <v>45.18869299332281</v>
+        <v>39.13432648625054</v>
       </c>
       <c r="AB2">
-        <v>45.01597354244672</v>
+        <v>38.69780506832236</v>
       </c>
       <c r="AC2">
-        <v>44.76703467570034</v>
+        <v>38.19833870086899</v>
       </c>
       <c r="AD2">
-        <v>44.71632255394954</v>
+        <v>37.88259248809627</v>
       </c>
       <c r="AE2">
-        <v>45.03756339518336</v>
+        <v>37.90234434407483</v>
       </c>
       <c r="AF2">
-        <v>44.79230976524384</v>
+        <v>37.42268333037964</v>
       </c>
       <c r="AG2">
-        <v>44.56489320793399</v>
+        <v>36.96660573159813</v>
       </c>
       <c r="AH2">
-        <v>44.37340270126831</v>
+        <v>36.54864711010371</v>
       </c>
       <c r="AI2">
-        <v>44.13799289912014</v>
+        <v>36.11453531675111</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -10099,85 +9240,85 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>30.1669656922603</v>
+        <v>29.47081101581457</v>
       </c>
       <c r="K3">
-        <v>29.40085799713231</v>
+        <v>28.0744578196421</v>
       </c>
       <c r="L3">
-        <v>28.88391620294645</v>
+        <v>26.96814350942473</v>
       </c>
       <c r="M3">
-        <v>28.609794162475</v>
+        <v>26.12678460236071</v>
       </c>
       <c r="N3">
-        <v>28.75756268639447</v>
+        <v>25.70017750766544</v>
       </c>
       <c r="O3">
-        <v>28.95971351137958</v>
+        <v>25.34408304948026</v>
       </c>
       <c r="P3">
-        <v>29.25851637968413</v>
+        <v>25.09408122672086</v>
       </c>
       <c r="Q3">
-        <v>29.549386759308</v>
+        <v>24.8517868796186</v>
       </c>
       <c r="R3">
-        <v>30.0904858882961</v>
+        <v>24.8226368725277</v>
       </c>
       <c r="S3">
-        <v>30.50587292201926</v>
+        <v>24.70597121692805</v>
       </c>
       <c r="T3">
-        <v>30.79334295781878</v>
+        <v>24.49816897342554</v>
       </c>
       <c r="U3">
-        <v>31.06953908185723</v>
+        <v>24.28265493647244</v>
       </c>
       <c r="V3">
-        <v>31.40661891056759</v>
+        <v>24.12240361662818</v>
       </c>
       <c r="W3">
-        <v>31.83497430252022</v>
+        <v>24.03724313165195</v>
       </c>
       <c r="X3">
-        <v>32.0608809974846</v>
+        <v>23.80645899187776</v>
       </c>
       <c r="Y3">
-        <v>32.42413248610422</v>
+        <v>23.67754265825999</v>
       </c>
       <c r="Z3">
-        <v>32.78730875662692</v>
+        <v>23.55187898734374</v>
       </c>
       <c r="AA3">
-        <v>33.01739986185317</v>
+        <v>23.33702709032539</v>
       </c>
       <c r="AB3">
-        <v>33.18113065924052</v>
+        <v>23.08411624743736</v>
       </c>
       <c r="AC3">
-        <v>33.29226954453665</v>
+        <v>22.79987921949485</v>
       </c>
       <c r="AD3">
-        <v>33.52301516440157</v>
+        <v>22.61064246939097</v>
       </c>
       <c r="AE3">
-        <v>33.99382426984675</v>
+        <v>22.59982347615883</v>
       </c>
       <c r="AF3">
-        <v>34.09946827436394</v>
+        <v>22.33528682585699</v>
       </c>
       <c r="AG3">
-        <v>34.20727315955788</v>
+        <v>22.08281317876784</v>
       </c>
       <c r="AH3">
-        <v>34.3184390100044</v>
+        <v>21.83825616105165</v>
       </c>
       <c r="AI3">
-        <v>34.37504604392947</v>
+        <v>21.57878489566894</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -10185,94 +9326,94 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4">
-        <v>18.84945834215317</v>
+        <v>19.11262102782018</v>
       </c>
       <c r="K4">
-        <v>17.79023130875385</v>
+        <v>18.29141352897106</v>
       </c>
       <c r="L4">
-        <v>16.93445671401605</v>
+        <v>17.65794462707635</v>
       </c>
       <c r="M4">
-        <v>16.25023820040115</v>
+        <v>17.18771680729871</v>
       </c>
       <c r="N4">
-        <v>15.86651920671265</v>
+        <v>17.02060189916533</v>
       </c>
       <c r="O4">
-        <v>15.49706439901787</v>
+        <v>16.86052055164349</v>
       </c>
       <c r="P4">
-        <v>15.20822706213876</v>
+        <v>16.77790706032419</v>
       </c>
       <c r="Q4">
-        <v>14.90810934714883</v>
+        <v>16.67877477131222</v>
       </c>
       <c r="R4">
-        <v>14.71661536899346</v>
+        <v>16.70045451070014</v>
       </c>
       <c r="S4">
-        <v>14.47079378717648</v>
+        <v>16.65341296937597</v>
       </c>
       <c r="T4">
-        <v>14.19123356031925</v>
+        <v>16.55888437195514</v>
       </c>
       <c r="U4">
-        <v>13.87573194836229</v>
+        <v>16.42691666461377</v>
       </c>
       <c r="V4">
-        <v>13.59953736175659</v>
+        <v>16.33601047878887</v>
       </c>
       <c r="W4">
-        <v>13.36781048585432</v>
+        <v>16.29531586310863</v>
       </c>
       <c r="X4">
-        <v>13.02305133088214</v>
+        <v>16.12047801606519</v>
       </c>
       <c r="Y4">
-        <v>12.75387216031126</v>
+        <v>16.03438499929596</v>
       </c>
       <c r="Z4">
-        <v>12.49468181780341</v>
+        <v>15.95663361862144</v>
       </c>
       <c r="AA4">
-        <v>12.17129313146965</v>
+        <v>15.79729939592516</v>
       </c>
       <c r="AB4">
-        <v>11.83484288320616</v>
+        <v>15.61368882088495</v>
       </c>
       <c r="AC4">
-        <v>11.47476513116364</v>
+        <v>15.39845948137411</v>
       </c>
       <c r="AD4">
-        <v>11.19330738954793</v>
+        <v>15.27195001870526</v>
       </c>
       <c r="AE4">
-        <v>11.04373912533658</v>
+        <v>15.30252086791599</v>
       </c>
       <c r="AF4">
-        <v>10.6928414908799</v>
+        <v>15.08739650452269</v>
       </c>
       <c r="AG4">
-        <v>10.35762004837612</v>
+        <v>14.88379255283029</v>
       </c>
       <c r="AH4">
-        <v>10.05496369126394</v>
+        <v>14.71039094905206</v>
       </c>
       <c r="AI4">
-        <v>9.762946855190664</v>
+        <v>14.53575042108219</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -10280,94 +9421,94 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5">
-        <v>0.7323943628759051</v>
+        <v>0.7452927889477641</v>
       </c>
       <c r="K5">
-        <v>0.6878516645548021</v>
+        <v>0.7124272919289921</v>
       </c>
       <c r="L5">
-        <v>0.6541307732490029</v>
+        <v>0.689752975288194</v>
       </c>
       <c r="M5">
-        <v>0.628157994632908</v>
+        <v>0.6745764454703861</v>
       </c>
       <c r="N5">
-        <v>0.6060977131955081</v>
+        <v>0.6628674502952731</v>
       </c>
       <c r="O5">
-        <v>0.585171229636701</v>
+        <v>0.651743071068007</v>
       </c>
       <c r="P5">
-        <v>0.568315419919733</v>
+        <v>0.6445064666252289</v>
       </c>
       <c r="Q5">
-        <v>0.5536791780073571</v>
+        <v>0.6395506330499231</v>
       </c>
       <c r="R5">
-        <v>0.541349017727187</v>
+        <v>0.636826034760134</v>
       </c>
       <c r="S5">
-        <v>0.52826211541332</v>
+        <v>0.632881432042841</v>
       </c>
       <c r="T5">
-        <v>0.5138638345304961</v>
+        <v>0.6269984411553461</v>
       </c>
       <c r="U5">
-        <v>0.4980501716451221</v>
+        <v>0.6191907830799901</v>
       </c>
       <c r="V5">
-        <v>0.4838472651397961</v>
+        <v>0.6129050762312011</v>
       </c>
       <c r="W5">
-        <v>0.4713978554804861</v>
+        <v>0.6084438175378462</v>
       </c>
       <c r="X5">
-        <v>0.456086648458566</v>
+        <v>0.600448795144676</v>
       </c>
       <c r="Y5">
-        <v>0.4434047797531001</v>
+        <v>0.5954929192815891</v>
       </c>
       <c r="Z5">
-        <v>0.430292097366756</v>
+        <v>0.589646558562738</v>
       </c>
       <c r="AA5">
-        <v>0.414846932838456</v>
+        <v>0.580353846942423</v>
       </c>
       <c r="AB5">
-        <v>0.399073871973986</v>
+        <v>0.570284323422915</v>
       </c>
       <c r="AC5">
-        <v>0.383700890543605</v>
+        <v>0.560492371173522</v>
       </c>
       <c r="AD5">
-        <v>0.370885166591838</v>
+        <v>0.553632506163218</v>
       </c>
       <c r="AE5">
-        <v>0.3596861068017751</v>
+        <v>0.5495318587821261</v>
       </c>
       <c r="AF5">
-        <v>0.343152681444466</v>
+        <v>0.53775902292819</v>
       </c>
       <c r="AG5">
-        <v>0.328344221199945</v>
+        <v>0.527535589404448</v>
       </c>
       <c r="AH5">
-        <v>0.3152545571469211</v>
+        <v>0.5186497899229401</v>
       </c>
       <c r="AI5">
-        <v>0.303314918158436</v>
+        <v>0.51097554717454</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -10375,94 +9516,94 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>0.3257705346823961</v>
+        <v>0.3325385618604331</v>
       </c>
       <c r="K6">
-        <v>0.3057673450359881</v>
+        <v>0.3187217605234821</v>
       </c>
       <c r="L6">
-        <v>0.289472679234971</v>
+        <v>0.308226210103663</v>
       </c>
       <c r="M6">
-        <v>0.276444675433453</v>
+        <v>0.300831036608177</v>
       </c>
       <c r="N6">
-        <v>0.2687638331765511</v>
+        <v>0.2991060635250221</v>
       </c>
       <c r="O6">
-        <v>0.261161787079803</v>
+        <v>0.297383958684473</v>
       </c>
       <c r="P6">
-        <v>0.2539885163384091</v>
+        <v>0.2958719331350091</v>
       </c>
       <c r="Q6">
-        <v>0.247327453194927</v>
+        <v>0.2950101330900891</v>
       </c>
       <c r="R6">
-        <v>0.242187923774365</v>
+        <v>0.2959274793141131</v>
       </c>
       <c r="S6">
-        <v>0.236329783377988</v>
+        <v>0.2959714338286211</v>
       </c>
       <c r="T6">
-        <v>0.230115210554816</v>
+        <v>0.295589653261579</v>
       </c>
       <c r="U6">
-        <v>0.222993410361845</v>
+        <v>0.294173170589024</v>
       </c>
       <c r="V6">
-        <v>0.216614567402338</v>
+        <v>0.293686276113532</v>
       </c>
       <c r="W6">
-        <v>0.211211246763897</v>
+        <v>0.294601400233775</v>
       </c>
       <c r="X6">
-        <v>0.203758972682327</v>
+        <v>0.293122064177312</v>
       </c>
       <c r="Y6">
-        <v>0.197203601695005</v>
+        <v>0.2926317576860891</v>
       </c>
       <c r="Z6">
-        <v>0.190544491450721</v>
+        <v>0.292030062270158</v>
       </c>
       <c r="AA6">
-        <v>0.182646400626664</v>
+        <v>0.2895885855530451</v>
       </c>
       <c r="AB6">
-        <v>0.1744291504933539</v>
+        <v>0.286632585936176</v>
       </c>
       <c r="AC6">
-        <v>0.166027402482946</v>
+        <v>0.283333634612716</v>
       </c>
       <c r="AD6">
-        <v>0.1590215331247771</v>
+        <v>0.281885436755282</v>
       </c>
       <c r="AE6">
-        <v>0.154381691832605</v>
+        <v>0.284307510570767</v>
       </c>
       <c r="AF6">
-        <v>0.146242030649579</v>
+        <v>0.28175886626032</v>
       </c>
       <c r="AG6">
-        <v>0.13805292759228</v>
+        <v>0.278925018432518</v>
       </c>
       <c r="AH6">
-        <v>0.130490121957186</v>
+        <v>0.276920672588912</v>
       </c>
       <c r="AI6">
-        <v>0.123282116625889</v>
+        <v>0.275170673869422</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -10470,94 +9611,94 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>0.9637058729681391</v>
+        <v>0.9746729262400291</v>
       </c>
       <c r="K7">
-        <v>0.911534581974741</v>
+        <v>0.9321371445787471</v>
       </c>
       <c r="L7">
-        <v>0.8712836403735901</v>
+        <v>0.9007418643107601</v>
       </c>
       <c r="M7">
-        <v>0.8396877744314889</v>
+        <v>0.8775579971037879</v>
       </c>
       <c r="N7">
-        <v>0.8205218012680011</v>
+        <v>0.866908199898164</v>
       </c>
       <c r="O7">
-        <v>0.8031772193877501</v>
+        <v>0.857539290131011</v>
       </c>
       <c r="P7">
-        <v>0.789065954719565</v>
+        <v>0.851092096421635</v>
       </c>
       <c r="Q7">
-        <v>0.7746355862423751</v>
+        <v>0.8439555072104431</v>
       </c>
       <c r="R7">
-        <v>0.764349934874646</v>
+        <v>0.840995498716272</v>
       </c>
       <c r="S7">
-        <v>0.7507775898686291</v>
+        <v>0.834043622328246</v>
       </c>
       <c r="T7">
-        <v>0.7369414848488541</v>
+        <v>0.826376321544361</v>
       </c>
       <c r="U7">
-        <v>0.718551929210996</v>
+        <v>0.813238355820643</v>
       </c>
       <c r="V7">
-        <v>0.7028905415311809</v>
+        <v>0.802905763376067</v>
       </c>
       <c r="W7">
-        <v>0.689567185272515</v>
+        <v>0.794881062778271</v>
       </c>
       <c r="X7">
-        <v>0.6688197026525931</v>
+        <v>0.7780715665112601</v>
       </c>
       <c r="Y7">
-        <v>0.652714014292453</v>
+        <v>0.7662329224019639</v>
       </c>
       <c r="Z7">
-        <v>0.639056971179238</v>
+        <v>0.756824908246542</v>
       </c>
       <c r="AA7">
-        <v>0.621982688646635</v>
+        <v>0.742921779044929</v>
       </c>
       <c r="AB7">
-        <v>0.603767811932333</v>
+        <v>0.726906277793104</v>
       </c>
       <c r="AC7">
-        <v>0.584876792660641</v>
+        <v>0.709656658904435</v>
       </c>
       <c r="AD7">
-        <v>0.569803151691442</v>
+        <v>0.6967573050617101</v>
       </c>
       <c r="AE7">
-        <v>0.5550127402666232</v>
+        <v>0.6852856751135932</v>
       </c>
       <c r="AF7">
-        <v>0.530437444680846</v>
+        <v>0.66061707841299</v>
       </c>
       <c r="AG7">
-        <v>0.510284693262963</v>
+        <v>0.6403438413795249</v>
       </c>
       <c r="AH7">
-        <v>0.4938321013990031</v>
+        <v>0.6240798165474032</v>
       </c>
       <c r="AI7">
-        <v>0.478756343569237</v>
+        <v>0.6091288786105791</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -10565,94 +9706,94 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
-        <v>0.249871049889233</v>
+        <v>0.256809405241172</v>
       </c>
       <c r="K8">
-        <v>0.232157842154333</v>
+        <v>0.245355215018056</v>
       </c>
       <c r="L8">
-        <v>0.218124169868847</v>
+        <v>0.237197267815729</v>
       </c>
       <c r="M8">
-        <v>0.205788711557758</v>
+        <v>0.230432125532082</v>
       </c>
       <c r="N8">
-        <v>0.197801061430817</v>
+        <v>0.228295967015826</v>
       </c>
       <c r="O8">
-        <v>0.189606773563173</v>
+        <v>0.225709378849955</v>
       </c>
       <c r="P8">
-        <v>0.182645882307805</v>
+        <v>0.224340075322612</v>
       </c>
       <c r="Q8">
-        <v>0.17565051741026</v>
+        <v>0.222867565933087</v>
       </c>
       <c r="R8">
-        <v>0.169715716656779</v>
+        <v>0.222630946709351</v>
       </c>
       <c r="S8">
-        <v>0.163300745711358</v>
+        <v>0.221638167502077</v>
       </c>
       <c r="T8">
-        <v>0.156850906567104</v>
+        <v>0.220520014878776</v>
       </c>
       <c r="U8">
-        <v>0.149824487083044</v>
+        <v>0.218626473744677</v>
       </c>
       <c r="V8">
-        <v>0.143754132376421</v>
+        <v>0.217947959244634</v>
       </c>
       <c r="W8">
-        <v>0.138378403138087</v>
+        <v>0.218341700059786</v>
       </c>
       <c r="X8">
-        <v>0.131399755295604</v>
+        <v>0.216298612402559</v>
       </c>
       <c r="Y8">
-        <v>0.125333266196982</v>
+        <v>0.215844186500746</v>
       </c>
       <c r="Z8">
-        <v>0.118987252101874</v>
+        <v>0.21491919311395</v>
       </c>
       <c r="AA8">
-        <v>0.111910730435822</v>
+        <v>0.21267120445125</v>
       </c>
       <c r="AB8">
-        <v>0.104603354380605</v>
+        <v>0.209765023103426</v>
       </c>
       <c r="AC8">
-        <v>0.09738464146716301</v>
+        <v>0.206934714882883</v>
       </c>
       <c r="AD8">
-        <v>0.09105592647288199</v>
+        <v>0.205471365011564</v>
       </c>
       <c r="AE8">
-        <v>0.08601984200803199</v>
+        <v>0.206687081653793</v>
       </c>
       <c r="AF8">
-        <v>0.07894715558398502</v>
+        <v>0.203726357945246</v>
       </c>
       <c r="AG8">
-        <v>0.07204934372346901</v>
+        <v>0.201063636806943</v>
       </c>
       <c r="AH8">
-        <v>0.06561097899290501</v>
+        <v>0.198964410031809</v>
       </c>
       <c r="AI8">
-        <v>0.05947389980092499</v>
+        <v>0.197176517447792</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -10660,94 +9801,94 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>2.045513106552529</v>
+        <v>2.075855181858755</v>
       </c>
       <c r="K9">
-        <v>1.933504787110257</v>
+        <v>1.99106759480568</v>
       </c>
       <c r="L9">
-        <v>1.844593715106124</v>
+        <v>1.927395418027294</v>
       </c>
       <c r="M9">
-        <v>1.777705274951842</v>
+        <v>1.884936129921053</v>
       </c>
       <c r="N9">
-        <v>1.740626032348622</v>
+        <v>1.872820136257939</v>
       </c>
       <c r="O9">
-        <v>1.70297050233701</v>
+        <v>1.859237285720553</v>
       </c>
       <c r="P9">
-        <v>1.674710353193126</v>
+        <v>1.854853275398872</v>
       </c>
       <c r="Q9">
-        <v>1.646147949245767</v>
+        <v>1.849800068114909</v>
       </c>
       <c r="R9">
-        <v>1.626467359116286</v>
+        <v>1.854072924571465</v>
       </c>
       <c r="S9">
-        <v>1.601166370962126</v>
+        <v>1.851350658539893</v>
       </c>
       <c r="T9">
-        <v>1.574132692151838</v>
+        <v>1.846144299396225</v>
       </c>
       <c r="U9">
-        <v>1.540138876959153</v>
+        <v>1.832547911380357</v>
       </c>
       <c r="V9">
-        <v>1.512976985890415</v>
+        <v>1.826477046587317</v>
       </c>
       <c r="W9">
-        <v>1.492416875288069</v>
+        <v>1.827925284436961</v>
       </c>
       <c r="X9">
-        <v>1.459349696432187</v>
+        <v>1.814821474885509</v>
       </c>
       <c r="Y9">
-        <v>1.436571165944903</v>
+        <v>1.814147484942095</v>
       </c>
       <c r="Z9">
-        <v>1.413247526134116</v>
+        <v>1.812655438447172</v>
       </c>
       <c r="AA9">
-        <v>1.380762744274237</v>
+        <v>1.799246786713571</v>
       </c>
       <c r="AB9">
-        <v>1.345717123018219</v>
+        <v>1.781864576552649</v>
       </c>
       <c r="AC9">
-        <v>1.30893006728126</v>
+        <v>1.761852352721357</v>
       </c>
       <c r="AD9">
-        <v>1.282231139609942</v>
+        <v>1.753640462129393</v>
       </c>
       <c r="AE9">
-        <v>1.272076916753938</v>
+        <v>1.766256545392152</v>
       </c>
       <c r="AF9">
-        <v>1.236371279960864</v>
+        <v>1.746359545112906</v>
       </c>
       <c r="AG9">
-        <v>1.201294323445703</v>
+        <v>1.726348155201352</v>
       </c>
       <c r="AH9">
-        <v>1.17004776686019</v>
+        <v>1.709730602948002</v>
       </c>
       <c r="AI9">
-        <v>1.141671635701044</v>
+        <v>1.695831052227712</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -10755,94 +9896,94 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10">
-        <v>0.8850404750677241</v>
+        <v>0.902454987929409</v>
       </c>
       <c r="K10">
-        <v>0.834573081622064</v>
+        <v>0.868000734460874</v>
       </c>
       <c r="L10">
-        <v>0.7965363007620411</v>
+        <v>0.845375858178475</v>
       </c>
       <c r="M10">
-        <v>0.767519250560899</v>
+        <v>0.831744981664136</v>
       </c>
       <c r="N10">
-        <v>0.7485968341384232</v>
+        <v>0.8286433032810782</v>
       </c>
       <c r="O10">
-        <v>0.727662269108494</v>
+        <v>0.822756208967252</v>
       </c>
       <c r="P10">
-        <v>0.707534100619534</v>
+        <v>0.8166777884067121</v>
       </c>
       <c r="Q10">
-        <v>0.6892508185317541</v>
+        <v>0.812637244321209</v>
       </c>
       <c r="R10">
-        <v>0.6749115152121981</v>
+        <v>0.8128657356794251</v>
       </c>
       <c r="S10">
-        <v>0.6586928520613781</v>
+        <v>0.8104530749658561</v>
       </c>
       <c r="T10">
-        <v>0.6411235379807491</v>
+        <v>0.8059363545950411</v>
       </c>
       <c r="U10">
-        <v>0.624428819249755</v>
+        <v>0.8032809800630341</v>
       </c>
       <c r="V10">
-        <v>0.6090344567870801</v>
+        <v>0.8017545553552571</v>
       </c>
       <c r="W10">
-        <v>0.5948312938058611</v>
+        <v>0.8011874629981489</v>
       </c>
       <c r="X10">
-        <v>0.5760503119129649</v>
+        <v>0.7952407001427679</v>
       </c>
       <c r="Y10">
-        <v>0.563359136491746</v>
+        <v>0.799416348042239</v>
       </c>
       <c r="Z10">
-        <v>0.549661069287113</v>
+        <v>0.80285015652277</v>
       </c>
       <c r="AA10">
-        <v>0.530654202886928</v>
+        <v>0.797073031773696</v>
       </c>
       <c r="AB10">
-        <v>0.510249589467716</v>
+        <v>0.7881729009742101</v>
       </c>
       <c r="AC10">
-        <v>0.489497237222722</v>
+        <v>0.778938028851738</v>
       </c>
       <c r="AD10">
-        <v>0.472798133294155</v>
+        <v>0.774881911018641</v>
       </c>
       <c r="AE10">
-        <v>0.46207167548723</v>
+        <v>0.778490151888537</v>
       </c>
       <c r="AF10">
-        <v>0.4422971637227432</v>
+        <v>0.7705821382893892</v>
       </c>
       <c r="AG10">
-        <v>0.4227906058020751</v>
+        <v>0.7626547739798031</v>
       </c>
       <c r="AH10">
-        <v>0.404850199237943</v>
+        <v>0.7552881591264</v>
       </c>
       <c r="AI10">
-        <v>0.388090920144829</v>
+        <v>0.7490731903624831</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -10850,94 +9991,94 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11">
-        <v>5.004546572069366</v>
+        <v>5.06221753667104</v>
       </c>
       <c r="K11">
-        <v>4.743349689516037</v>
+        <v>4.853077370946532</v>
       </c>
       <c r="L11">
-        <v>4.528942668764316</v>
+        <v>4.686862257454584</v>
       </c>
       <c r="M11">
-        <v>4.364092483389663</v>
+        <v>4.568343041858499</v>
       </c>
       <c r="N11">
-        <v>4.281127757462326</v>
+        <v>4.532817885720358</v>
       </c>
       <c r="O11">
-        <v>4.193625902425263</v>
+        <v>4.490625806965729</v>
       </c>
       <c r="P11">
-        <v>4.131996585621858</v>
+        <v>4.474079386299859</v>
       </c>
       <c r="Q11">
-        <v>4.070204115327459</v>
+        <v>4.456695358323596</v>
       </c>
       <c r="R11">
-        <v>4.02560425515932</v>
+        <v>4.456561202385579</v>
       </c>
       <c r="S11">
-        <v>3.972731722024474</v>
+        <v>4.446233230748883</v>
       </c>
       <c r="T11">
-        <v>3.911483549830962</v>
+        <v>4.425264686346537</v>
       </c>
       <c r="U11">
-        <v>3.83791586037635</v>
+        <v>4.390564380167521</v>
       </c>
       <c r="V11">
-        <v>3.773928535066168</v>
+        <v>4.365436510587198</v>
       </c>
       <c r="W11">
-        <v>3.721844220462537</v>
+        <v>4.353158378874776</v>
       </c>
       <c r="X11">
-        <v>3.637486507648855</v>
+        <v>4.303937065006769</v>
       </c>
       <c r="Y11">
-        <v>3.575626187020185</v>
+        <v>4.279789636169056</v>
       </c>
       <c r="Z11">
-        <v>3.517591438392232</v>
+        <v>4.259754377285782</v>
       </c>
       <c r="AA11">
-        <v>3.441267524302393</v>
+        <v>4.217605157102951</v>
       </c>
       <c r="AB11">
-        <v>3.359479648411387</v>
+        <v>4.167221344664967</v>
       </c>
       <c r="AC11">
-        <v>3.271764242936042</v>
+        <v>4.108429272997114</v>
       </c>
       <c r="AD11">
-        <v>3.207835949380547</v>
+        <v>4.076551607279325</v>
       </c>
       <c r="AE11">
-        <v>3.187931963937428</v>
+        <v>4.096896853183166</v>
       </c>
       <c r="AF11">
-        <v>3.105014907157872</v>
+        <v>4.040825262497977</v>
       </c>
       <c r="AG11">
-        <v>3.025589958803677</v>
+        <v>3.987601442591535</v>
       </c>
       <c r="AH11">
-        <v>2.954186621364329</v>
+        <v>3.941380340500027</v>
       </c>
       <c r="AI11">
-        <v>2.886670438690026</v>
+        <v>3.898062161211836</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -10945,94 +10086,94 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
-        <v>1.371831672067719</v>
+        <v>1.390036650554223</v>
       </c>
       <c r="K12">
-        <v>1.297676520694458</v>
+        <v>1.332535089686559</v>
       </c>
       <c r="L12">
-        <v>1.237455613435256</v>
+        <v>1.287933314766639</v>
       </c>
       <c r="M12">
-        <v>1.184425323183494</v>
+        <v>1.249535796200776</v>
       </c>
       <c r="N12">
-        <v>1.15394066441894</v>
+        <v>1.234171085309781</v>
       </c>
       <c r="O12">
-        <v>1.141703638154014</v>
+        <v>1.238710253215433</v>
       </c>
       <c r="P12">
-        <v>1.120975294446834</v>
+        <v>1.233246461965055</v>
       </c>
       <c r="Q12">
-        <v>1.086445763824793</v>
+        <v>1.211358666746217</v>
       </c>
       <c r="R12">
-        <v>1.080185318226352</v>
+        <v>1.222078365662408</v>
       </c>
       <c r="S12">
-        <v>1.068595520303309</v>
+        <v>1.226719209731516</v>
       </c>
       <c r="T12">
-        <v>1.050834303296586</v>
+        <v>1.223889735121416</v>
       </c>
       <c r="U12">
-        <v>1.027885252969703</v>
+        <v>1.215026942980564</v>
       </c>
       <c r="V12">
-        <v>1.004812370901796</v>
+        <v>1.205124692083437</v>
       </c>
       <c r="W12">
-        <v>0.986083852807851</v>
+        <v>1.200118454635814</v>
       </c>
       <c r="X12">
-        <v>0.9599901044690939</v>
+        <v>1.18675278919167</v>
       </c>
       <c r="Y12">
-        <v>0.9415040966637829</v>
+        <v>1.182615397745196</v>
       </c>
       <c r="Z12">
-        <v>0.923774806145757</v>
+        <v>1.17967102864797</v>
       </c>
       <c r="AA12">
-        <v>0.905551671087964</v>
+        <v>1.177381061870837</v>
       </c>
       <c r="AB12">
-        <v>0.885861838026007</v>
+        <v>1.173535255064183</v>
       </c>
       <c r="AC12">
-        <v>0.8616829704493651</v>
+        <v>1.163255051716267</v>
       </c>
       <c r="AD12">
-        <v>0.8395459332606041</v>
+        <v>1.153437444509779</v>
       </c>
       <c r="AE12">
-        <v>0.8226751987993799</v>
+        <v>1.147386847588832</v>
       </c>
       <c r="AF12">
-        <v>0.7972342115385059</v>
+        <v>1.133729841000315</v>
       </c>
       <c r="AG12">
-        <v>0.7728976217179031</v>
+        <v>1.121837024021147</v>
       </c>
       <c r="AH12">
-        <v>0.752403333890446</v>
+        <v>1.115153591541991</v>
       </c>
       <c r="AI12">
-        <v>0.7258174145762701</v>
+        <v>1.09403788736134</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -11040,94 +10181,94 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13">
-        <v>0.272831161953744</v>
+        <v>0.277107737151935</v>
       </c>
       <c r="K13">
-        <v>0.258364067849607</v>
+        <v>0.266623488708792</v>
       </c>
       <c r="L13">
-        <v>0.24727866723822</v>
+        <v>0.259383471321649</v>
       </c>
       <c r="M13">
-        <v>0.238010240007733</v>
+        <v>0.253863278301361</v>
       </c>
       <c r="N13">
-        <v>0.232075038219509</v>
+        <v>0.251753309962659</v>
       </c>
       <c r="O13">
-        <v>0.227326480491353</v>
+        <v>0.250939257114016</v>
       </c>
       <c r="P13">
-        <v>0.223752763601713</v>
+        <v>0.251386220143319</v>
       </c>
       <c r="Q13">
-        <v>0.220050376070801</v>
+        <v>0.251757163821541</v>
       </c>
       <c r="R13">
-        <v>0.217906367507994</v>
+        <v>0.253999333748544</v>
       </c>
       <c r="S13">
-        <v>0.214740115616975</v>
+        <v>0.255006171757999</v>
       </c>
       <c r="T13">
-        <v>0.21081305416188</v>
+        <v>0.25510206614987</v>
       </c>
       <c r="U13">
-        <v>0.20644466033414</v>
+        <v>0.254855689662398</v>
       </c>
       <c r="V13">
-        <v>0.20325342600935</v>
+        <v>0.256277022333513</v>
       </c>
       <c r="W13">
-        <v>0.200808005220393</v>
+        <v>0.258768501170274</v>
       </c>
       <c r="X13">
-        <v>0.196396020385157</v>
+        <v>0.2589603315860191</v>
       </c>
       <c r="Y13">
-        <v>0.192516935777506</v>
+        <v>0.259790876653714</v>
       </c>
       <c r="Z13">
-        <v>0.189254846329944</v>
+        <v>0.261937242376968</v>
       </c>
       <c r="AA13">
-        <v>0.18505425105217</v>
+        <v>0.263006767336681</v>
       </c>
       <c r="AB13">
-        <v>0.1795116038409049</v>
+        <v>0.261883518386533</v>
       </c>
       <c r="AC13">
-        <v>0.174082267972969</v>
+        <v>0.261302134583723</v>
       </c>
       <c r="AD13">
-        <v>0.169815367384498</v>
+        <v>0.262300146677234</v>
       </c>
       <c r="AE13">
-        <v>0.167166947401925</v>
+        <v>0.26549269176583</v>
       </c>
       <c r="AF13">
-        <v>0.161568607633942</v>
+        <v>0.264864527004947</v>
       </c>
       <c r="AG13">
-        <v>0.155731528797752</v>
+        <v>0.263814327277388</v>
       </c>
       <c r="AH13">
-        <v>0.15039269835632</v>
+        <v>0.263614893530445</v>
       </c>
       <c r="AI13">
-        <v>0.145201871836781</v>
+        <v>0.26342399498359</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -11135,94 +10276,94 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14">
-        <v>3.541243451953207</v>
+        <v>3.602972060162551</v>
       </c>
       <c r="K14">
-        <v>3.323048966298358</v>
+        <v>3.44085287495135</v>
       </c>
       <c r="L14">
-        <v>3.146280997478412</v>
+        <v>3.316493204488269</v>
       </c>
       <c r="M14">
-        <v>3.002054599291437</v>
+        <v>3.22259486558541</v>
       </c>
       <c r="N14">
-        <v>2.906149052766953</v>
+        <v>3.176545439076913</v>
       </c>
       <c r="O14">
-        <v>2.813661256019454</v>
+        <v>3.131559465286775</v>
       </c>
       <c r="P14">
-        <v>2.745486852988567</v>
+        <v>3.111368381611287</v>
       </c>
       <c r="Q14">
-        <v>2.678243246221435</v>
+        <v>3.091151598715938</v>
       </c>
       <c r="R14">
-        <v>2.641545455932371</v>
+        <v>3.107903376396471</v>
       </c>
       <c r="S14">
-        <v>2.582439847772799</v>
+        <v>3.095619427721362</v>
       </c>
       <c r="T14">
-        <v>2.512170859328389</v>
+        <v>3.066468084476798</v>
       </c>
       <c r="U14">
-        <v>2.446274341813319</v>
+        <v>3.04541267433162</v>
       </c>
       <c r="V14">
-        <v>2.389331475031647</v>
+        <v>3.034885907204993</v>
       </c>
       <c r="W14">
-        <v>2.340670503897288</v>
+        <v>3.034374062465529</v>
       </c>
       <c r="X14">
-        <v>2.266918573951349</v>
+        <v>3.002355404421312</v>
       </c>
       <c r="Y14">
-        <v>2.203842908749778</v>
+        <v>2.981452186079586</v>
       </c>
       <c r="Z14">
-        <v>2.139931886795154</v>
+        <v>2.957082669702805</v>
       </c>
       <c r="AA14">
-        <v>2.066506798557738</v>
+        <v>2.92131453284405</v>
       </c>
       <c r="AB14">
-        <v>1.991946780851865</v>
+        <v>2.882668424470431</v>
       </c>
       <c r="AC14">
-        <v>1.915506898238077</v>
+        <v>2.842875540552265</v>
       </c>
       <c r="AD14">
-        <v>1.852385591410136</v>
+        <v>2.817640455618386</v>
       </c>
       <c r="AE14">
-        <v>1.811201286739317</v>
+        <v>2.816731858367275</v>
       </c>
       <c r="AF14">
-        <v>1.737718512401175</v>
+        <v>2.778161527597789</v>
       </c>
       <c r="AG14">
-        <v>1.665150842283594</v>
+        <v>2.737927630293255</v>
       </c>
       <c r="AH14">
-        <v>1.598505568105052</v>
+        <v>2.703992195083261</v>
       </c>
       <c r="AI14">
-        <v>1.536262518177417</v>
+        <v>2.671693092976399</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -11230,94 +10371,94 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15">
-        <v>3.456710082073209</v>
+        <v>3.492663191202867</v>
       </c>
       <c r="K15">
-        <v>3.262402761943205</v>
+        <v>3.33061496336199</v>
       </c>
       <c r="L15">
-        <v>3.100357488505277</v>
+        <v>3.198582785321092</v>
       </c>
       <c r="M15">
-        <v>2.966351872960473</v>
+        <v>3.093301109053046</v>
       </c>
       <c r="N15">
-        <v>2.910819418286997</v>
+        <v>3.066673058822314</v>
       </c>
       <c r="O15">
-        <v>2.850997340814857</v>
+        <v>3.034316575640282</v>
       </c>
       <c r="P15">
-        <v>2.809755338381619</v>
+        <v>3.020484974994599</v>
       </c>
       <c r="Q15">
-        <v>2.766474343071901</v>
+        <v>3.003990831985263</v>
       </c>
       <c r="R15">
-        <v>2.732392504805962</v>
+        <v>2.996593612756381</v>
       </c>
       <c r="S15">
-        <v>2.693757124064127</v>
+        <v>2.983496540208677</v>
       </c>
       <c r="T15">
-        <v>2.652904127067577</v>
+        <v>2.966594715029191</v>
       </c>
       <c r="U15">
-        <v>2.603224138358863</v>
+        <v>2.939999302793945</v>
       </c>
       <c r="V15">
-        <v>2.559093605620399</v>
+        <v>2.918609669671724</v>
       </c>
       <c r="W15">
-        <v>2.520601043717332</v>
+        <v>2.90351573791745</v>
       </c>
       <c r="X15">
-        <v>2.466795036993447</v>
+        <v>2.870469212595338</v>
       </c>
       <c r="Y15">
-        <v>2.421796067725821</v>
+        <v>2.846971283793689</v>
       </c>
       <c r="Z15">
-        <v>2.382339432620506</v>
+        <v>2.829261983444585</v>
       </c>
       <c r="AA15">
-        <v>2.330109186760643</v>
+        <v>2.796136642291729</v>
       </c>
       <c r="AB15">
-        <v>2.280202110809788</v>
+        <v>2.764754590516359</v>
       </c>
       <c r="AC15">
-        <v>2.221311719908852</v>
+        <v>2.72138972037809</v>
       </c>
       <c r="AD15">
-        <v>2.177929497327105</v>
+        <v>2.695751378480724</v>
       </c>
       <c r="AE15">
-        <v>2.165514755308327</v>
+        <v>2.70545379360992</v>
       </c>
       <c r="AF15">
-        <v>2.113857496105924</v>
+        <v>2.66901233747262</v>
       </c>
       <c r="AG15">
-        <v>2.065433981746755</v>
+        <v>2.635741113442377</v>
       </c>
       <c r="AH15">
-        <v>2.019389743953641</v>
+        <v>2.602616477230872</v>
       </c>
       <c r="AI15">
-        <v>1.97440477790981</v>
+        <v>2.571177424856491</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -11325,94 +10466,94 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16">
-        <v>-0.263162685667006</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>-0.501182220217204</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.7234879130602913</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.9374786068975652</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-1.154082692452681</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>-1.363456152625614</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>-1.569679998185426</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-1.770665424163385</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>-1.983839141706683</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-2.182619182199487</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>-2.367650811635889</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>-2.551184716251484</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>-2.736473117032281</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-2.927505377254314</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-3.097426685183048</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>-3.280512838984701</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>-3.461951800818029</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-3.626006264455513</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>-3.778845937678789</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>-3.923694350210468</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>-4.07864262915733</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>-4.258781742579411</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>-4.394555013642787</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>-4.526172504454176</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>-4.655427257788126</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>-4.772803565891521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -11420,16 +10561,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>11.45229637857527</v>
@@ -11515,16 +10656,16 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>0.1601735128795501</v>
@@ -11610,16 +10751,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>7.500151136365362</v>
@@ -11705,16 +10846,16 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -11800,16 +10941,16 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -11895,94 +11036,94 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22">
-        <v>18.26062047083846</v>
+        <v>18.4885587216532</v>
       </c>
       <c r="K22">
-        <v>17.25576032322839</v>
+        <v>17.68789443229811</v>
       </c>
       <c r="L22">
-        <v>16.44674019895779</v>
+        <v>17.067820370758</v>
       </c>
       <c r="M22">
-        <v>15.80650508175787</v>
+        <v>16.60825531758195</v>
       </c>
       <c r="N22">
-        <v>15.46097083492502</v>
+        <v>16.44512816224317</v>
       </c>
       <c r="O22">
-        <v>15.12372770382734</v>
+        <v>16.28218189669203</v>
       </c>
       <c r="P22">
-        <v>14.87194961885292</v>
+        <v>16.20197717793377</v>
       </c>
       <c r="Q22">
-        <v>14.61241695450022</v>
+        <v>16.10923329946586</v>
       </c>
       <c r="R22">
-        <v>14.44809437272703</v>
+        <v>16.11835692502682</v>
       </c>
       <c r="S22">
-        <v>14.23258663944043</v>
+        <v>16.06355649607309</v>
       </c>
       <c r="T22">
-        <v>13.98551885478351</v>
+        <v>15.9663772171822</v>
       </c>
       <c r="U22">
-        <v>13.70170803976621</v>
+        <v>15.82742434967948</v>
       </c>
       <c r="V22">
-        <v>13.45389691802604</v>
+        <v>15.72392396099001</v>
       </c>
       <c r="W22">
-        <v>13.25113865666105</v>
+        <v>15.66854684078182</v>
       </c>
       <c r="X22">
-        <v>12.93826856646637</v>
+        <v>15.48349205630926</v>
       </c>
       <c r="Y22">
-        <v>12.69917811724031</v>
+        <v>15.38287519610545</v>
       </c>
       <c r="Z22">
-        <v>12.47252933485408</v>
+        <v>15.29283141804624</v>
       </c>
       <c r="AA22">
-        <v>12.18224508071292</v>
+        <v>15.1229090815259</v>
       </c>
       <c r="AB22">
-        <v>11.88184499613525</v>
+        <v>14.93312122482923</v>
       </c>
       <c r="AC22">
-        <v>11.55787923247045</v>
+        <v>14.71034608099575</v>
       </c>
       <c r="AD22">
-        <v>11.31299666125591</v>
+        <v>14.57573401217716</v>
       </c>
       <c r="AE22">
-        <v>11.20103548586813</v>
+        <v>14.60085614972425</v>
       </c>
       <c r="AF22">
-        <v>10.88460906438587</v>
+        <v>14.37557117031167</v>
       </c>
       <c r="AG22">
-        <v>10.58821652477103</v>
+        <v>14.16554964022127</v>
       </c>
       <c r="AH22">
-        <v>10.32206168852184</v>
+        <v>13.98414160280921</v>
       </c>
       <c r="AI22">
-        <v>10.0701060601183</v>
+        <v>13.81114611068174</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -11990,94 +11131,94 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23">
-        <v>0.5888378713147121</v>
+        <v>0.6240623061669851</v>
       </c>
       <c r="K23">
-        <v>0.5344709855254632</v>
+        <v>0.6035190966729492</v>
       </c>
       <c r="L23">
-        <v>0.487716515058264</v>
+        <v>0.5901242563183481</v>
       </c>
       <c r="M23">
-        <v>0.4437331186432781</v>
+        <v>0.5794614897167653</v>
       </c>
       <c r="N23">
-        <v>0.4055483717876309</v>
+        <v>0.57547373692216</v>
       </c>
       <c r="O23">
-        <v>0.3733366951905291</v>
+        <v>0.5783386549514552</v>
       </c>
       <c r="P23">
-        <v>0.3362774432858392</v>
+        <v>0.5759298823904202</v>
       </c>
       <c r="Q23">
-        <v>0.2956923926486175</v>
+        <v>0.5695414718463614</v>
       </c>
       <c r="R23">
-        <v>0.268520996266435</v>
+        <v>0.582097585673322</v>
       </c>
       <c r="S23">
-        <v>0.2382071477360529</v>
+        <v>0.589856473302879</v>
       </c>
       <c r="T23">
-        <v>0.2057147055357396</v>
+        <v>0.5925071547729437</v>
       </c>
       <c r="U23">
-        <v>0.1740239085960833</v>
+        <v>0.5994923149342992</v>
       </c>
       <c r="V23">
-        <v>0.1456404437305559</v>
+        <v>0.6120865177988669</v>
       </c>
       <c r="W23">
-        <v>0.1166718291932691</v>
+        <v>0.6267690223268122</v>
       </c>
       <c r="X23">
-        <v>0.08478276441577197</v>
+        <v>0.6369859597559331</v>
       </c>
       <c r="Y23">
-        <v>0.05469404307094693</v>
+        <v>0.651509803190507</v>
       </c>
       <c r="Z23">
-        <v>0.02215248294933188</v>
+        <v>0.663802200575208</v>
       </c>
       <c r="AA23">
-        <v>-0.01095194924326575</v>
+        <v>0.6743903143992641</v>
       </c>
       <c r="AB23">
-        <v>-0.04700211292908788</v>
+        <v>0.6805675960557261</v>
       </c>
       <c r="AC23">
-        <v>-0.08311410130680502</v>
+        <v>0.6881134003783551</v>
       </c>
       <c r="AD23">
-        <v>-0.1196892717079886</v>
+        <v>0.6962160065280975</v>
       </c>
       <c r="AE23">
-        <v>-0.1572963605315564</v>
+        <v>0.7016647181917417</v>
       </c>
       <c r="AF23">
-        <v>-0.1917675735059711</v>
+        <v>0.711825334211025</v>
       </c>
       <c r="AG23">
-        <v>-0.2305964763949192</v>
+        <v>0.7182429126090198</v>
       </c>
       <c r="AH23">
-        <v>-0.2670979972579029</v>
+        <v>0.7262493462428551</v>
       </c>
       <c r="AI23">
-        <v>-0.3071592049276298</v>
+        <v>0.7246043104004471</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -12085,16 +11226,16 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -12180,16 +11321,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -12275,16 +11416,16 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -12370,16 +11511,16 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -12465,16 +11606,16 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -12560,16 +11701,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -12655,16 +11796,16 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -12750,16 +11891,16 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31">
         <v>0.2649</v>
@@ -12857,16 +11998,16 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32">
         <v>0.2649</v>
@@ -12964,16 +12105,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <v>0.2649</v>
@@ -13071,16 +12212,16 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34">
         <v>0.2649</v>
@@ -13178,16 +12319,16 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>20.5893</v>
@@ -13285,16 +12426,16 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>20.5893</v>
@@ -13392,16 +12533,16 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37">
         <v>20.5893</v>
@@ -13499,16 +12640,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38">
         <v>20.5893</v>
@@ -13606,16 +12747,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <v>2.1032</v>
@@ -13713,16 +12854,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40">
         <v>2.1032</v>
@@ -13820,16 +12961,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41">
         <v>2.1032</v>
@@ -13927,16 +13068,16 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42">
         <v>2.1032</v>
@@ -14027,434 +13168,6 @@
       </c>
       <c r="AI42">
         <v>21.52421506085415</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43">
-        <v>999</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>999</v>
-      </c>
-      <c r="I43">
-        <v>999</v>
-      </c>
-      <c r="J43">
-        <v>0.4329919907787287</v>
-      </c>
-      <c r="K43">
-        <v>0.8252179572730119</v>
-      </c>
-      <c r="L43">
-        <v>1.19228478046143</v>
-      </c>
-      <c r="M43">
-        <v>1.545530953216722</v>
-      </c>
-      <c r="N43">
-        <v>1.903302486276346</v>
-      </c>
-      <c r="O43">
-        <v>2.252174309273708</v>
-      </c>
-      <c r="P43">
-        <v>2.594755154777844</v>
-      </c>
-      <c r="Q43">
-        <v>2.926934455526013</v>
-      </c>
-      <c r="R43">
-        <v>3.284009874061721</v>
-      </c>
-      <c r="S43">
-        <v>3.617282522891721</v>
-      </c>
-      <c r="T43">
-        <v>3.927523172757345</v>
-      </c>
-      <c r="U43">
-        <v>4.235699429133292</v>
-      </c>
-      <c r="V43">
-        <v>4.547742176907122</v>
-      </c>
-      <c r="W43">
-        <v>4.870225793613955</v>
-      </c>
-      <c r="X43">
-        <v>5.156995320423791</v>
-      </c>
-      <c r="Y43">
-        <v>5.466076988859524</v>
-      </c>
-      <c r="Z43">
-        <v>5.773477968465156</v>
-      </c>
-      <c r="AA43">
-        <v>6.054366507072277</v>
-      </c>
-      <c r="AB43">
-        <v>6.318168474124371</v>
-      </c>
-      <c r="AC43">
-        <v>6.568695974831352</v>
-      </c>
-      <c r="AD43">
-        <v>6.833730065853273</v>
-      </c>
-      <c r="AE43">
-        <v>7.135219051108527</v>
-      </c>
-      <c r="AF43">
-        <v>7.369626434864203</v>
-      </c>
-      <c r="AG43">
-        <v>7.598287476335861</v>
-      </c>
-      <c r="AH43">
-        <v>7.824755591164603</v>
-      </c>
-      <c r="AI43">
-        <v>8.023457582369021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44">
-        <v>999</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>999</v>
-      </c>
-      <c r="I44">
-        <v>999</v>
-      </c>
-      <c r="J44">
-        <v>0.6961546764457346</v>
-      </c>
-      <c r="K44">
-        <v>1.326400177490215</v>
-      </c>
-      <c r="L44">
-        <v>1.915772693521721</v>
-      </c>
-      <c r="M44">
-        <v>2.483009560114287</v>
-      </c>
-      <c r="N44">
-        <v>3.05738517872903</v>
-      </c>
-      <c r="O44">
-        <v>3.615630461899319</v>
-      </c>
-      <c r="P44">
-        <v>4.164435152963275</v>
-      </c>
-      <c r="Q44">
-        <v>4.697599879689407</v>
-      </c>
-      <c r="R44">
-        <v>5.267849015768397</v>
-      </c>
-      <c r="S44">
-        <v>5.799901705091215</v>
-      </c>
-      <c r="T44">
-        <v>6.295173984393239</v>
-      </c>
-      <c r="U44">
-        <v>6.786884145384783</v>
-      </c>
-      <c r="V44">
-        <v>7.284215293939403</v>
-      </c>
-      <c r="W44">
-        <v>7.797731170868273</v>
-      </c>
-      <c r="X44">
-        <v>8.254422005606834</v>
-      </c>
-      <c r="Y44">
-        <v>8.746589827844225</v>
-      </c>
-      <c r="Z44">
-        <v>9.235429769283177</v>
-      </c>
-      <c r="AA44">
-        <v>9.680372771527789</v>
-      </c>
-      <c r="AB44">
-        <v>10.09701441180316</v>
-      </c>
-      <c r="AC44">
-        <v>10.49239032504181</v>
-      </c>
-      <c r="AD44">
-        <v>10.9123726950106</v>
-      </c>
-      <c r="AE44">
-        <v>11.39400079368792</v>
-      </c>
-      <c r="AF44">
-        <v>11.76418144850695</v>
-      </c>
-      <c r="AG44">
-        <v>12.12445998079004</v>
-      </c>
-      <c r="AH44">
-        <v>12.48018284895275</v>
-      </c>
-      <c r="AI44">
-        <v>12.79626114826054</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45">
-        <v>999</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>999</v>
-      </c>
-      <c r="I45">
-        <v>999</v>
-      </c>
-      <c r="J45">
-        <v>0.4329919907787291</v>
-      </c>
-      <c r="K45">
-        <v>0.8252179572730121</v>
-      </c>
-      <c r="L45">
-        <v>1.19228478046143</v>
-      </c>
-      <c r="M45">
-        <v>1.545530953216722</v>
-      </c>
-      <c r="N45">
-        <v>1.903302486276346</v>
-      </c>
-      <c r="O45">
-        <v>2.252174309273708</v>
-      </c>
-      <c r="P45">
-        <v>2.594755154777844</v>
-      </c>
-      <c r="Q45">
-        <v>2.926934455526013</v>
-      </c>
-      <c r="R45">
-        <v>3.284009874061721</v>
-      </c>
-      <c r="S45">
-        <v>3.617282522891721</v>
-      </c>
-      <c r="T45">
-        <v>3.927523172757344</v>
-      </c>
-      <c r="U45">
-        <v>4.235699429133293</v>
-      </c>
-      <c r="V45">
-        <v>4.547742176907122</v>
-      </c>
-      <c r="W45">
-        <v>4.870225793613955</v>
-      </c>
-      <c r="X45">
-        <v>5.156995320423791</v>
-      </c>
-      <c r="Y45">
-        <v>5.466076988859524</v>
-      </c>
-      <c r="Z45">
-        <v>5.773477968465156</v>
-      </c>
-      <c r="AA45">
-        <v>6.054366507072277</v>
-      </c>
-      <c r="AB45">
-        <v>6.318168474124371</v>
-      </c>
-      <c r="AC45">
-        <v>6.568695974831352</v>
-      </c>
-      <c r="AD45">
-        <v>6.833730065853273</v>
-      </c>
-      <c r="AE45">
-        <v>7.135219051108527</v>
-      </c>
-      <c r="AF45">
-        <v>7.369626434864202</v>
-      </c>
-      <c r="AG45">
-        <v>7.598287476335861</v>
-      </c>
-      <c r="AH45">
-        <v>7.824755591164603</v>
-      </c>
-      <c r="AI45">
-        <v>8.023457582369021</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46">
-        <v>999</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>999</v>
-      </c>
-      <c r="I46">
-        <v>999</v>
-      </c>
-      <c r="J46">
-        <v>0.696154676445734</v>
-      </c>
-      <c r="K46">
-        <v>1.326400177490214</v>
-      </c>
-      <c r="L46">
-        <v>1.915772693521721</v>
-      </c>
-      <c r="M46">
-        <v>2.483009560114287</v>
-      </c>
-      <c r="N46">
-        <v>3.05738517872903</v>
-      </c>
-      <c r="O46">
-        <v>3.615630461899318</v>
-      </c>
-      <c r="P46">
-        <v>4.164435152963275</v>
-      </c>
-      <c r="Q46">
-        <v>4.697599879689407</v>
-      </c>
-      <c r="R46">
-        <v>5.267849015768397</v>
-      </c>
-      <c r="S46">
-        <v>5.799901705091215</v>
-      </c>
-      <c r="T46">
-        <v>6.295173984393239</v>
-      </c>
-      <c r="U46">
-        <v>6.786884145384783</v>
-      </c>
-      <c r="V46">
-        <v>7.284215293939403</v>
-      </c>
-      <c r="W46">
-        <v>7.797731170868273</v>
-      </c>
-      <c r="X46">
-        <v>8.254422005606834</v>
-      </c>
-      <c r="Y46">
-        <v>8.746589827844225</v>
-      </c>
-      <c r="Z46">
-        <v>9.235429769283177</v>
-      </c>
-      <c r="AA46">
-        <v>9.680372771527789</v>
-      </c>
-      <c r="AB46">
-        <v>10.09701441180316</v>
-      </c>
-      <c r="AC46">
-        <v>10.49239032504181</v>
-      </c>
-      <c r="AD46">
-        <v>10.9123726950106</v>
-      </c>
-      <c r="AE46">
-        <v>11.39400079368792</v>
-      </c>
-      <c r="AF46">
-        <v>11.76418144850695</v>
-      </c>
-      <c r="AG46">
-        <v>12.12445998079004</v>
-      </c>
-      <c r="AH46">
-        <v>12.48018284895275</v>
-      </c>
-      <c r="AI46">
-        <v>12.79626114826054</v>
       </c>
     </row>
   </sheetData>
